--- a/config/default/forms/app/death_report.xlsx
+++ b/config/default/forms/app/death_report.xlsx
@@ -1,22 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\apoorva\cht-core\config\default\forms\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2D156D-E4B3-4DAE-A4CF-692BC85FC0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="choices-backup" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="173">
   <si>
     <t>type</t>
   </si>
@@ -117,7 +135,7 @@
     <t>cht::notes</t>
   </si>
   <si>
-    <t xml:space="preserve">begin group</t>
+    <t>begin group</t>
   </si>
   <si>
     <t>inputs</t>
@@ -126,7 +144,7 @@
     <t>NO_LABEL</t>
   </si>
   <si>
-    <t xml:space="preserve">./source = 'user'</t>
+    <t>./source = 'user'</t>
   </si>
   <si>
     <t>field-list</t>
@@ -147,7 +165,7 @@
     <t>source_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Source ID</t>
+    <t>Source ID</t>
   </si>
   <si>
     <t>contact</t>
@@ -156,16 +174,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>db:person</t>
-  </si>
-  <si>
     <t>_id</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the patient's name?</t>
-  </si>
-  <si>
-    <t>db-object</t>
+    <t>What is the patient's name?</t>
   </si>
   <si>
     <t>Name</t>
@@ -174,19 +186,19 @@
     <t>short_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Short Name</t>
+    <t>Short Name</t>
   </si>
   <si>
     <t>patient_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Patient ID</t>
+    <t>Patient ID</t>
   </si>
   <si>
     <t>date_of_birth</t>
   </si>
   <si>
-    <t xml:space="preserve">Date of Birth</t>
+    <t>Date of Birth</t>
   </si>
   <si>
     <t>sex</t>
@@ -198,19 +210,19 @@
     <t>parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Household ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHW name</t>
+    <t>Household ID</t>
+  </si>
+  <si>
+    <t>CHW name</t>
   </si>
   <si>
     <t>phone</t>
   </si>
   <si>
-    <t xml:space="preserve">CHW phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end group</t>
+    <t>CHW phone</t>
+  </si>
+  <si>
+    <t>end group</t>
   </si>
   <si>
     <t>calculate</t>
@@ -219,19 +231,19 @@
     <t>patient_age_in_years</t>
   </si>
   <si>
-    <t xml:space="preserve">floor( difference-in-months( ${date_of_birth}, today() ) div 12 )</t>
+    <t>floor( difference-in-months( ${date_of_birth}, today() ) div 12 )</t>
   </si>
   <si>
     <t>patient_age_in_months</t>
   </si>
   <si>
-    <t xml:space="preserve">difference-in-months( ${date_of_birth}, today() )</t>
+    <t>difference-in-months( ${date_of_birth}, today() )</t>
   </si>
   <si>
     <t>patient_age_in_days</t>
   </si>
   <si>
-    <t xml:space="preserve">floor(decimal-date-time(today()) - decimal-date-time(${date_of_birth}) )</t>
+    <t>floor(decimal-date-time(today()) - decimal-date-time(${date_of_birth}) )</t>
   </si>
   <si>
     <t>patient_uuid</t>
@@ -258,13 +270,13 @@
     <t>patient_display_name</t>
   </si>
   <si>
-    <t xml:space="preserve">if(../patient_short_name = '', ../patient_name, concat(../patient_name, ' (', ../patient_short_name, ')'))</t>
+    <t>if(../patient_short_name = '', ../patient_name, concat(../patient_name, ' (', ../patient_short_name, ')'))</t>
   </si>
   <si>
     <t>death_details</t>
   </si>
   <si>
-    <t xml:space="preserve">Death details</t>
+    <t>Death details</t>
   </si>
   <si>
     <t>date</t>
@@ -273,25 +285,25 @@
     <t>date_of_death</t>
   </si>
   <si>
-    <t xml:space="preserve">Date of Death</t>
+    <t>Date of Death</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t xml:space="preserve">(. &lt;= now()) and floor(decimal-date-time(today()) - decimal-date-time(.)) &lt;= 365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of death can only be from today up to 1 year ago.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one places_of_death</t>
+    <t>(. &lt;= now()) and floor(decimal-date-time(today()) - decimal-date-time(.)) &lt;= 365</t>
+  </si>
+  <si>
+    <t>Date of death can only be from today up to 1 year ago.</t>
+  </si>
+  <si>
+    <t>select_one places_of_death</t>
   </si>
   <si>
     <t>place_of_death</t>
   </si>
   <si>
-    <t xml:space="preserve">Place of death</t>
+    <t>Place of death</t>
   </si>
   <si>
     <t>text</t>
@@ -300,16 +312,16 @@
     <t>place_of_death_other</t>
   </si>
   <si>
-    <t xml:space="preserve">Specify other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(../place_of_death, 'other')</t>
+    <t>Specify other</t>
+  </si>
+  <si>
+    <t>selected(../place_of_death, 'other')</t>
   </si>
   <si>
     <t>death_information</t>
   </si>
   <si>
-    <t xml:space="preserve">Provide any relevant information related to the death of ${patient_display_name}.</t>
+    <t>Provide any relevant information related to the death of ${patient_display_name}.</t>
   </si>
   <si>
     <t>multiline</t>
@@ -318,7 +330,7 @@
     <t>group_review</t>
   </si>
   <si>
-    <t xml:space="preserve">field-list summary</t>
+    <t>field-list summary</t>
   </si>
   <si>
     <t>note</t>
@@ -327,22 +339,22 @@
     <t>submit</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;To finish, be sure to click the Submit button.&lt;/h4&gt;</t>
+    <t>&lt;h4 style="text-align:center;"&gt;To finish, be sure to click the Submit button.&lt;/h4&gt;</t>
   </si>
   <si>
     <t>r_summary_details</t>
   </si>
   <si>
-    <t xml:space="preserve">Patient Details&lt;I class="fa fa-user"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 yellow</t>
+    <t>Patient Details&lt;I class="fa fa-user"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>h1 yellow</t>
   </si>
   <si>
     <t>c_patient_age</t>
   </si>
   <si>
-    <t xml:space="preserve">if(../../patient_age_in_days &lt; 31, 
+    <t>if(../../patient_age_in_days &lt; 31, 
 concat(../../patient_age_in_days, ' days old'),
 if(../../patient_age_in_months &lt; 12, 
 concat(../../patient_age_in_months, ' months old'), 
@@ -352,7 +364,7 @@
     <t>r_patient_details</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;div style="text-align:center;"&gt;${patient_display_name}
+    <t>&lt;div style="text-align:center;"&gt;${patient_display_name}
 ${c_patient_age}
 Date of Death: ${date_of_death}&lt;/div&gt;</t>
   </si>
@@ -360,16 +372,16 @@
     <t>r_death_info</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;div style="text-align:center;"&gt;Relevant Information: ${death_information}&lt;/div&gt;</t>
+    <t>&lt;div style="text-align:center;"&gt;Relevant Information: ${death_information}&lt;/div&gt;</t>
   </si>
   <si>
     <t>r_key_instruction</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;Important Information&lt;/b&gt;&lt;i class="fa fa-warning"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 blue</t>
+    <t>&lt;b&gt;Important Information&lt;/b&gt;&lt;i class="fa fa-warning"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>h1 blue</t>
   </si>
   <si>
     <t>blank_note</t>
@@ -378,16 +390,16 @@
     <t>r_referral</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;b&gt;You will never be able to do any follow ups on ${patient_display_name} when you submit this death report.&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 red</t>
+    <t>&lt;b&gt;You will never be able to do any follow ups on ${patient_display_name} when you submit this death report.&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>h1 red</t>
   </si>
   <si>
     <t>r_undo</t>
   </si>
   <si>
-    <t xml:space="preserve">You will be able to undo this death report later, if needed.</t>
+    <t>You will be able to undo this death report later, if needed.</t>
   </si>
   <si>
     <t>data</t>
@@ -399,7 +411,7 @@
     <t>${date_of_death}</t>
   </si>
   <si>
-    <t xml:space="preserve">The date that the patient died.</t>
+    <t>The date that the patient died.</t>
   </si>
   <si>
     <t>__place_of_death</t>
@@ -408,7 +420,7 @@
     <t>${place_of_death}</t>
   </si>
   <si>
-    <t xml:space="preserve">Where the patient died (health facility, home, other).</t>
+    <t>Where the patient died (health facility, home, other).</t>
   </si>
   <si>
     <t>__place_of_death_other</t>
@@ -417,7 +429,7 @@
     <t>${place_of_death_other}</t>
   </si>
   <si>
-    <t xml:space="preserve">Free text describing where the patient died if "other" was selected for place of death.</t>
+    <t>Free text describing where the patient died if "other" was selected for place of death.</t>
   </si>
   <si>
     <t>__death_information</t>
@@ -426,7 +438,7 @@
     <t>${death_information}</t>
   </si>
   <si>
-    <t xml:space="preserve">Free text providing further information related to the death.</t>
+    <t>Free text providing further information related to the death.</t>
   </si>
   <si>
     <t>meta</t>
@@ -438,7 +450,7 @@
     <t>../../../inputs/contact/_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Patient UUID</t>
+    <t>Patient UUID</t>
   </si>
   <si>
     <t>__patient_id</t>
@@ -453,7 +465,7 @@
     <t>../../../inputs/contact/parent/_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Household UUID</t>
+    <t>Household UUID</t>
   </si>
   <si>
     <t>__source</t>
@@ -495,7 +507,7 @@
     <t>health_facility</t>
   </si>
   <si>
-    <t xml:space="preserve">Health facility</t>
+    <t>Health facility</t>
   </si>
   <si>
     <t>home</t>
@@ -531,7 +543,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t xml:space="preserve">Death report</t>
+    <t>Death report</t>
   </si>
   <si>
     <t>death_report</t>
@@ -541,45 +553,57 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>select-contact type-person</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="160" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
   <fonts count="8">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <color theme="1"/>
-      <sz val="10.000000"/>
     </font>
     <font>
       <b/>
-    </font>
-    <font/>
-    <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <b/>
-      <sz val="10.000000"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b/>
-      <sz val="11.000000"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.000000"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="15">
@@ -678,58 +702,58 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="13" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,295 +764,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
@@ -1080,7 +824,7 @@
         <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1151,42 +895,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AJ69"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.710000000000001"/>
-    <col customWidth="1" min="2" max="2" width="28.289999999999999"/>
-    <col customWidth="1" min="3" max="3" width="43.289999999999999"/>
-    <col customWidth="1" hidden="1" min="4" max="9" width="19.710000000000001"/>
-    <col customWidth="1" min="10" max="10" width="14.43"/>
-    <col customWidth="1" min="11" max="11" width="49"/>
-    <col customWidth="1" min="12" max="12" width="17.43"/>
-    <col customWidth="1" min="13" max="13" width="22"/>
-    <col customWidth="1" min="14" max="14" width="32.710000000000001"/>
-    <col customWidth="1" hidden="1" min="15" max="19" width="16"/>
-    <col customWidth="1" hidden="1" min="20" max="20" width="12.859999999999999"/>
-    <col customWidth="1" min="21" max="21" width="73.859999999999999"/>
-    <col customWidth="1" min="22" max="23" width="14.43"/>
-    <col customWidth="1" hidden="1" min="24" max="29" width="14.43"/>
-    <col customWidth="1" min="30" max="30" width="14.43"/>
-    <col customWidth="1" min="31" max="36" width="29.859999999999999"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="1"/>
+    <col min="4" max="9" width="19.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="49" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="14" max="14" width="32.6640625" customWidth="1"/>
+    <col min="15" max="19" width="16" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="73.88671875" customWidth="1"/>
+    <col min="22" max="23" width="14.44140625" customWidth="1"/>
+    <col min="24" max="29" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="14.44140625" customWidth="1"/>
+    <col min="31" max="36" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:36" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +1038,7 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:36" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1338,7 +1086,7 @@
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:36" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -1384,7 +1132,7 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:36" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -1428,7 +1176,7 @@
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:36" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1472,15 +1220,15 @@
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:36" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1491,7 +1239,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1518,7 +1266,7 @@
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:36" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -1526,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1562,15 +1310,15 @@
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:36" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1606,15 +1354,15 @@
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:36" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1650,15 +1398,15 @@
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:36" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1696,15 +1444,15 @@
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:36" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1740,12 +1488,12 @@
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:36" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
@@ -1784,15 +1532,15 @@
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:36" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1828,12 +1576,12 @@
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:36" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
@@ -1872,7 +1620,7 @@
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:36" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1916,7 +1664,7 @@
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:36" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -1924,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1960,15 +1708,15 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:36" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2004,9 +1752,9 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:36" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -2044,9 +1792,9 @@
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:36" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -2084,9 +1832,9 @@
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:36" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -2124,9 +1872,9 @@
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:36" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -2164,9 +1912,9 @@
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:36" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -2204,7 +1952,7 @@
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:36" ht="15.75" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2242,12 +1990,12 @@
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:36" ht="15.75" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>35</v>
@@ -2270,7 +2018,7 @@
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
@@ -2292,12 +2040,12 @@
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:36" ht="15.75" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>35</v>
@@ -2320,7 +2068,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
@@ -2342,12 +2090,12 @@
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:36" ht="15.75" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>35</v>
@@ -2370,7 +2118,7 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
@@ -2390,12 +2138,12 @@
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:36" ht="15.75" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>35</v>
@@ -2418,7 +2166,7 @@
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
@@ -2438,12 +2186,12 @@
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:36" ht="15.75" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>35</v>
@@ -2466,7 +2214,7 @@
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
@@ -2486,12 +2234,12 @@
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:36" ht="15.75" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>35</v>
@@ -2514,7 +2262,7 @@
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
@@ -2534,12 +2282,12 @@
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:36" ht="15.75" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>35</v>
@@ -2562,7 +2310,7 @@
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
@@ -2582,12 +2330,12 @@
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:36" ht="15.75" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>35</v>
@@ -2610,7 +2358,7 @@
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
@@ -2630,7 +2378,7 @@
       <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:36" ht="15.75" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2668,15 +2416,15 @@
       <c r="AI32" s="4"/>
       <c r="AJ32" s="4"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:36" ht="15.75" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2714,15 +2462,15 @@
       <c r="AI33" s="8"/>
       <c r="AJ33" s="8"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:36" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2731,15 +2479,15 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
@@ -2764,15 +2512,15 @@
       <c r="AI34" s="8"/>
       <c r="AJ34" s="8"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:36" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2781,7 +2529,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
@@ -2810,15 +2558,15 @@
       <c r="AI35" s="8"/>
       <c r="AJ35" s="8"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:36" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2827,10 +2575,10 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -2858,15 +2606,15 @@
       <c r="AI36" s="8"/>
       <c r="AJ36" s="8"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:36" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2877,7 +2625,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
@@ -2904,9 +2652,9 @@
       <c r="AI37" s="8"/>
       <c r="AJ37" s="8"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:36" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
@@ -2944,7 +2692,7 @@
       <c r="AI38" s="8"/>
       <c r="AJ38" s="8"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:36" ht="15.75" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2982,12 +2730,12 @@
       <c r="AI39" s="4"/>
       <c r="AJ39" s="4"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:36" ht="15.75" customHeight="1">
       <c r="A40" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>35</v>
@@ -3001,7 +2749,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
@@ -3030,15 +2778,15 @@
       <c r="AI40" s="10"/>
       <c r="AJ40" s="10"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:36" ht="15.75" customHeight="1">
       <c r="A41" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -3074,15 +2822,15 @@
       <c r="AI41" s="10"/>
       <c r="AJ41" s="10"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:36" ht="15.75" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -3093,7 +2841,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
@@ -3120,12 +2868,12 @@
       <c r="AI42" s="10"/>
       <c r="AJ42" s="10"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:36" ht="15.75" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>35</v>
@@ -3148,7 +2896,7 @@
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
       <c r="U43" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
@@ -3166,15 +2914,15 @@
       <c r="AI43" s="10"/>
       <c r="AJ43" s="10"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:36" ht="15.75" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -3210,15 +2958,15 @@
       <c r="AI44" s="10"/>
       <c r="AJ44" s="10"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:36" ht="15.75" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -3254,15 +3002,15 @@
       <c r="AI45" s="10"/>
       <c r="AJ45" s="10"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:36" ht="15.75" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -3273,7 +3021,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
       <c r="L46" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
@@ -3300,12 +3048,12 @@
       <c r="AI46" s="10"/>
       <c r="AJ46" s="10"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:36" ht="15.75" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>35</v>
@@ -3344,15 +3092,15 @@
       <c r="AI47" s="10"/>
       <c r="AJ47" s="10"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:36" ht="15.75" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -3363,7 +3111,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
       <c r="L48" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
@@ -3390,15 +3138,15 @@
       <c r="AI48" s="10"/>
       <c r="AJ48" s="10"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:36" ht="15.75" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -3434,9 +3182,9 @@
       <c r="AI49" s="10"/>
       <c r="AJ49" s="10"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:36" ht="15.75" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
@@ -3474,7 +3222,7 @@
       <c r="AI50" s="10"/>
       <c r="AJ50" s="10"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:36" ht="15.75" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -3512,12 +3260,12 @@
       <c r="AI51" s="4"/>
       <c r="AJ51" s="4"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:36" ht="15.75" customHeight="1">
       <c r="A52" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>35</v>
@@ -3560,12 +3308,12 @@
       <c r="AI52" s="12"/>
       <c r="AJ52" s="12"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:36" ht="15.75" customHeight="1">
       <c r="A53" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>35</v>
@@ -3588,7 +3336,7 @@
       <c r="S53" s="12"/>
       <c r="T53" s="12"/>
       <c r="U53" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V53" s="12"/>
       <c r="W53" s="12"/>
@@ -3602,18 +3350,18 @@
       <c r="AE53" s="12"/>
       <c r="AF53" s="12"/>
       <c r="AG53" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AH53" s="12"/>
       <c r="AI53" s="12"/>
       <c r="AJ53" s="12"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:36" ht="15.75" customHeight="1">
       <c r="A54" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>35</v>
@@ -3636,7 +3384,7 @@
       <c r="S54" s="12"/>
       <c r="T54" s="12"/>
       <c r="U54" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V54" s="12"/>
       <c r="W54" s="12"/>
@@ -3650,18 +3398,18 @@
       <c r="AE54" s="12"/>
       <c r="AF54" s="12"/>
       <c r="AG54" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AH54" s="12"/>
       <c r="AI54" s="12"/>
       <c r="AJ54" s="12"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:36" ht="15.75" customHeight="1">
       <c r="A55" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>35</v>
@@ -3684,7 +3432,7 @@
       <c r="S55" s="12"/>
       <c r="T55" s="12"/>
       <c r="U55" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="V55" s="12"/>
       <c r="W55" s="12"/>
@@ -3698,18 +3446,18 @@
       <c r="AE55" s="12"/>
       <c r="AF55" s="12"/>
       <c r="AG55" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AH55" s="12"/>
       <c r="AI55" s="12"/>
       <c r="AJ55" s="12"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:36" ht="15.75" customHeight="1">
       <c r="A56" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>35</v>
@@ -3732,7 +3480,7 @@
       <c r="S56" s="12"/>
       <c r="T56" s="12"/>
       <c r="U56" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V56" s="12"/>
       <c r="W56" s="12"/>
@@ -3746,18 +3494,18 @@
       <c r="AE56" s="12"/>
       <c r="AF56" s="12"/>
       <c r="AG56" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AH56" s="12"/>
       <c r="AI56" s="12"/>
       <c r="AJ56" s="12"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:36" ht="15.75" customHeight="1">
       <c r="A57" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>35</v>
@@ -3796,12 +3544,12 @@
       <c r="AI57" s="12"/>
       <c r="AJ57" s="12"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:36" ht="15.75" customHeight="1">
       <c r="A58" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>35</v>
@@ -3824,7 +3572,7 @@
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
       <c r="U58" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V58" s="12"/>
       <c r="W58" s="12"/>
@@ -3838,18 +3586,18 @@
       <c r="AE58" s="12"/>
       <c r="AF58" s="12"/>
       <c r="AG58" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AH58" s="12"/>
       <c r="AI58" s="12"/>
       <c r="AJ58" s="12"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:36" ht="15.75" customHeight="1">
       <c r="A59" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>35</v>
@@ -3872,7 +3620,7 @@
       <c r="S59" s="12"/>
       <c r="T59" s="12"/>
       <c r="U59" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V59" s="12"/>
       <c r="W59" s="12"/>
@@ -3886,18 +3634,18 @@
       <c r="AE59" s="12"/>
       <c r="AF59" s="12"/>
       <c r="AG59" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AH59" s="12"/>
       <c r="AI59" s="12"/>
       <c r="AJ59" s="12"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:36" ht="15.75" customHeight="1">
       <c r="A60" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>35</v>
@@ -3920,7 +3668,7 @@
       <c r="S60" s="12"/>
       <c r="T60" s="12"/>
       <c r="U60" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V60" s="12"/>
       <c r="W60" s="12"/>
@@ -3934,18 +3682,18 @@
       <c r="AE60" s="12"/>
       <c r="AF60" s="12"/>
       <c r="AG60" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AH60" s="12"/>
       <c r="AI60" s="12"/>
       <c r="AJ60" s="12"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:36" ht="15.75" customHeight="1">
       <c r="A61" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>35</v>
@@ -3968,7 +3716,7 @@
       <c r="S61" s="12"/>
       <c r="T61" s="12"/>
       <c r="U61" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V61" s="12"/>
       <c r="W61" s="12"/>
@@ -3988,12 +3736,12 @@
       <c r="AI61" s="12"/>
       <c r="AJ61" s="12"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:36" ht="15.75" customHeight="1">
       <c r="A62" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>35</v>
@@ -4016,7 +3764,7 @@
       <c r="S62" s="12"/>
       <c r="T62" s="12"/>
       <c r="U62" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="V62" s="12"/>
       <c r="W62" s="12"/>
@@ -4030,18 +3778,18 @@
       <c r="AE62" s="12"/>
       <c r="AF62" s="12"/>
       <c r="AG62" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AH62" s="12"/>
       <c r="AI62" s="12"/>
       <c r="AJ62" s="12"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:36" ht="15.75" customHeight="1">
       <c r="A63" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -4078,12 +3826,12 @@
       <c r="AI63" s="12"/>
       <c r="AJ63" s="12"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:36" ht="15.75" customHeight="1">
       <c r="A64" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -4120,7 +3868,7 @@
       <c r="AI64" s="12"/>
       <c r="AJ64" s="12"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:36" ht="15.75" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -4158,7 +3906,7 @@
       <c r="AI65" s="4"/>
       <c r="AJ65" s="4"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:36" ht="15.75" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -4196,7 +3944,7 @@
       <c r="AI66" s="4"/>
       <c r="AJ66" s="4"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:36" ht="15.75" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -4234,7 +3982,7 @@
       <c r="AI67" s="4"/>
       <c r="AJ67" s="4"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:36" ht="15.75" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -4272,7 +4020,7 @@
       <c r="AI68" s="4"/>
       <c r="AJ68" s="4"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:36" ht="15.75" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -4311,52 +4059,44 @@
       <c r="AJ69" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{009000BF-00E1-4B32-80A4-00D100AB0074}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"yes,no"</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J69</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J69" xr:uid="{009000BF-00E1-4B32-80A4-00D100AB0074}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.43"/>
-    <col customWidth="1" min="2" max="6" width="14.43"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -4391,15 +4131,15 @@
       <c r="V1" s="21"/>
       <c r="W1" s="21"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -4422,15 +4162,15 @@
       <c r="V2" s="21"/>
       <c r="W2" s="21"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1">
       <c r="A3" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>153</v>
-      </c>
       <c r="C3" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -4453,7 +4193,7 @@
       <c r="V3" s="21"/>
       <c r="W3" s="21"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -4478,15 +4218,15 @@
       <c r="V4" s="21"/>
       <c r="W4" s="21"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1">
       <c r="A5" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>155</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>157</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -4509,15 +4249,15 @@
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -4540,15 +4280,15 @@
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -4571,7 +4311,7 @@
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -4596,7 +4336,7 @@
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1">
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
@@ -4604,7 +4344,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1">
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -4612,7 +4352,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1">
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -4620,7 +4360,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1">
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
@@ -4628,7 +4368,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1">
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
@@ -4636,7 +4376,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1">
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -4644,7 +4384,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1">
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -4652,7 +4392,7 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1">
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -4660,7 +4400,7 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="4:9" ht="15.75" customHeight="1">
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -4668,7 +4408,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="4:9" ht="15.75" customHeight="1">
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -4676,7 +4416,7 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="4:9" ht="15.75" customHeight="1">
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -4684,7 +4424,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="4:9" ht="15.75" customHeight="1">
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -4692,7 +4432,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="4:9" ht="15.75" customHeight="1">
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -4700,7 +4440,7 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="4:9" ht="15.75" customHeight="1">
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -4708,7 +4448,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="4:9" ht="15.75" customHeight="1">
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -4716,7 +4456,7 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="4:9" ht="15.75" customHeight="1">
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
@@ -4724,7 +4464,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="4:9" ht="15.75" customHeight="1">
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -4732,7 +4472,7 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="4:9" ht="15.75" customHeight="1">
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
@@ -4740,7 +4480,7 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="4:9" ht="15.75" customHeight="1">
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
@@ -4748,7 +4488,7 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="4:9" ht="15.75" customHeight="1">
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
@@ -4756,7 +4496,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="4:9" ht="15.75" customHeight="1">
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -4764,7 +4504,7 @@
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="4:9" ht="15.75" customHeight="1">
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
@@ -4772,7 +4512,7 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="4:9" ht="15.75" customHeight="1">
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
@@ -4780,7 +4520,7 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="4:9" ht="15.75" customHeight="1">
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
@@ -4788,7 +4528,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="4:9" ht="15.75" customHeight="1">
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
@@ -4796,7 +4536,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="4:9" ht="15.75" customHeight="1">
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
@@ -4804,7 +4544,7 @@
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="4:9" ht="15.75" customHeight="1">
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
@@ -4812,7 +4552,7 @@
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="4:9" ht="15.75" customHeight="1">
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
@@ -4820,7 +4560,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="4:9" ht="15.75" customHeight="1">
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
@@ -4828,7 +4568,7 @@
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="4:9" ht="15.75" customHeight="1">
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
@@ -4836,7 +4576,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="4:9" ht="15.75" customHeight="1">
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -4844,7 +4584,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="4:9" ht="15.75" customHeight="1">
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
@@ -4852,7 +4592,7 @@
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="4:9" ht="15.75" customHeight="1">
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
@@ -4860,7 +4600,7 @@
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="4:9" ht="15.75" customHeight="1">
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
@@ -4868,7 +4608,7 @@
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="4:9" ht="15.75" customHeight="1">
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
@@ -4876,7 +4616,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="4:9" ht="15.75" customHeight="1">
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
@@ -4884,7 +4624,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="4:9" ht="15.75" customHeight="1">
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
@@ -4892,7 +4632,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="4:9" ht="15.75" customHeight="1">
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
@@ -4900,7 +4640,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="4:9" ht="15.75" customHeight="1">
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
@@ -4908,7 +4648,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="4:9" ht="15.75" customHeight="1">
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
@@ -4916,7 +4656,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="4:9" ht="15.75" customHeight="1">
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
@@ -4924,7 +4664,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="4:9" ht="15.75" customHeight="1">
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
@@ -4932,7 +4672,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="4:9" ht="15.75" customHeight="1">
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
@@ -4940,7 +4680,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="4:9" ht="15.75" customHeight="1">
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
       <c r="F52" s="21"/>
@@ -4948,7 +4688,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="4:9" ht="15.75" customHeight="1">
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
@@ -4956,7 +4696,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="4:9" ht="15.75" customHeight="1">
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
       <c r="F54" s="21"/>
@@ -4964,7 +4704,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="4:9" ht="15.75" customHeight="1">
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
@@ -4972,7 +4712,7 @@
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="4:9" ht="15.75" customHeight="1">
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
@@ -4980,7 +4720,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="4:9" ht="15.75" customHeight="1">
       <c r="D57" s="21"/>
       <c r="E57" s="21"/>
       <c r="F57" s="21"/>
@@ -4988,7 +4728,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="4:9" ht="15.75" customHeight="1">
       <c r="D58" s="21"/>
       <c r="E58" s="21"/>
       <c r="F58" s="21"/>
@@ -4996,7 +4736,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="4:9" ht="15.75" customHeight="1">
       <c r="D59" s="21"/>
       <c r="E59" s="21"/>
       <c r="F59" s="21"/>
@@ -5004,7 +4744,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="4:9" ht="15.75" customHeight="1">
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
@@ -5012,7 +4752,7 @@
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="4:9" ht="15.75" customHeight="1">
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
@@ -5020,7 +4760,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="4:9" ht="15.75" customHeight="1">
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
       <c r="F62" s="21"/>
@@ -5028,7 +4768,7 @@
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="4:9" ht="15.75" customHeight="1">
       <c r="D63" s="21"/>
       <c r="E63" s="21"/>
       <c r="F63" s="21"/>
@@ -5036,7 +4776,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="4:9" ht="15.75" customHeight="1">
       <c r="D64" s="21"/>
       <c r="E64" s="21"/>
       <c r="F64" s="21"/>
@@ -5044,7 +4784,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="4:9" ht="15.75" customHeight="1">
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
@@ -5052,7 +4792,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="4:9" ht="15.75" customHeight="1">
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
       <c r="F66" s="21"/>
@@ -5060,7 +4800,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="4:9" ht="15.75" customHeight="1">
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
       <c r="F67" s="21"/>
@@ -5068,7 +4808,7 @@
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="4:9" ht="15.75" customHeight="1">
       <c r="D68" s="21"/>
       <c r="E68" s="21"/>
       <c r="F68" s="21"/>
@@ -5076,7 +4816,7 @@
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="4:9" ht="15.75" customHeight="1">
       <c r="D69" s="21"/>
       <c r="E69" s="21"/>
       <c r="F69" s="21"/>
@@ -5084,7 +4824,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="4:9" ht="15.75" customHeight="1">
       <c r="D70" s="21"/>
       <c r="E70" s="21"/>
       <c r="F70" s="21"/>
@@ -5092,7 +4832,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="4:9" ht="15.75" customHeight="1">
       <c r="D71" s="21"/>
       <c r="E71" s="21"/>
       <c r="F71" s="21"/>
@@ -5100,7 +4840,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="4:9" ht="15.75" customHeight="1">
       <c r="D72" s="21"/>
       <c r="E72" s="21"/>
       <c r="F72" s="21"/>
@@ -5108,7 +4848,7 @@
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="4:9" ht="15.75" customHeight="1">
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
       <c r="F73" s="21"/>
@@ -5116,7 +4856,7 @@
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="4:9" ht="15.75" customHeight="1">
       <c r="D74" s="21"/>
       <c r="E74" s="21"/>
       <c r="F74" s="21"/>
@@ -5124,7 +4864,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="4:9" ht="15.75" customHeight="1">
       <c r="D75" s="21"/>
       <c r="E75" s="21"/>
       <c r="F75" s="21"/>
@@ -5132,7 +4872,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="4:9" ht="15.75" customHeight="1">
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
       <c r="F76" s="21"/>
@@ -5140,7 +4880,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="4:9" ht="15.75" customHeight="1">
       <c r="D77" s="21"/>
       <c r="E77" s="21"/>
       <c r="F77" s="21"/>
@@ -5148,7 +4888,7 @@
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="4:9" ht="15.75" customHeight="1">
       <c r="D78" s="21"/>
       <c r="E78" s="21"/>
       <c r="F78" s="21"/>
@@ -5156,7 +4896,7 @@
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="4:9" ht="15.75" customHeight="1">
       <c r="D79" s="21"/>
       <c r="E79" s="21"/>
       <c r="F79" s="21"/>
@@ -5164,7 +4904,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="4:9" ht="15.75" customHeight="1">
       <c r="D80" s="21"/>
       <c r="E80" s="21"/>
       <c r="F80" s="21"/>
@@ -5172,7 +4912,7 @@
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="4:9" ht="15.75" customHeight="1">
       <c r="D81" s="21"/>
       <c r="E81" s="21"/>
       <c r="F81" s="21"/>
@@ -5180,7 +4920,7 @@
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="4:9" ht="15.75" customHeight="1">
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
       <c r="F82" s="21"/>
@@ -5188,7 +4928,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="4:9" ht="15.75" customHeight="1">
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
       <c r="F83" s="21"/>
@@ -5196,7 +4936,7 @@
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="4:9" ht="15.75" customHeight="1">
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
       <c r="F84" s="21"/>
@@ -5204,7 +4944,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="4:9" ht="15.75" customHeight="1">
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
       <c r="F85" s="21"/>
@@ -5212,7 +4952,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="4:9" ht="15.75" customHeight="1">
       <c r="D86" s="21"/>
       <c r="E86" s="21"/>
       <c r="F86" s="21"/>
@@ -5220,7 +4960,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="4:9" ht="15.75" customHeight="1">
       <c r="D87" s="21"/>
       <c r="E87" s="21"/>
       <c r="F87" s="21"/>
@@ -5228,7 +4968,7 @@
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="4:9" ht="15.75" customHeight="1">
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
       <c r="F88" s="21"/>
@@ -5236,7 +4976,7 @@
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="4:9" ht="15.75" customHeight="1">
       <c r="D89" s="21"/>
       <c r="E89" s="21"/>
       <c r="F89" s="21"/>
@@ -5244,7 +4984,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="4:9" ht="15.75" customHeight="1">
       <c r="D90" s="21"/>
       <c r="E90" s="21"/>
       <c r="F90" s="21"/>
@@ -5252,7 +4992,7 @@
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="4:9" ht="15.75" customHeight="1">
       <c r="D91" s="21"/>
       <c r="E91" s="21"/>
       <c r="F91" s="21"/>
@@ -5260,7 +5000,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="4:9" ht="15.75" customHeight="1">
       <c r="D92" s="21"/>
       <c r="E92" s="21"/>
       <c r="F92" s="21"/>
@@ -5268,7 +5008,7 @@
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="4:9" ht="15.75" customHeight="1">
       <c r="D93" s="21"/>
       <c r="E93" s="21"/>
       <c r="F93" s="21"/>
@@ -5276,7 +5016,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="4:9" ht="15.75" customHeight="1">
       <c r="D94" s="21"/>
       <c r="E94" s="21"/>
       <c r="F94" s="21"/>
@@ -5284,7 +5024,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="4:9" ht="15.75" customHeight="1">
       <c r="D95" s="21"/>
       <c r="E95" s="21"/>
       <c r="F95" s="21"/>
@@ -5292,7 +5032,7 @@
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="4:9" ht="15.75" customHeight="1">
       <c r="D96" s="21"/>
       <c r="E96" s="21"/>
       <c r="F96" s="21"/>
@@ -5300,7 +5040,7 @@
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="4:9" ht="15.75" customHeight="1">
       <c r="D97" s="21"/>
       <c r="E97" s="21"/>
       <c r="F97" s="21"/>
@@ -5308,7 +5048,7 @@
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="4:9" ht="15.75" customHeight="1">
       <c r="D98" s="21"/>
       <c r="E98" s="21"/>
       <c r="F98" s="21"/>
@@ -5316,7 +5056,7 @@
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="4:9" ht="15.75" customHeight="1">
       <c r="D99" s="21"/>
       <c r="E99" s="21"/>
       <c r="F99" s="21"/>
@@ -5324,7 +5064,7 @@
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="4:9" ht="15.75" customHeight="1">
       <c r="D100" s="21"/>
       <c r="E100" s="21"/>
       <c r="F100" s="21"/>
@@ -5332,7 +5072,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="4:9" ht="15.75" customHeight="1">
       <c r="D101" s="21"/>
       <c r="E101" s="21"/>
       <c r="F101" s="21"/>
@@ -5340,7 +5080,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="4:9" ht="15.75" customHeight="1">
       <c r="D102" s="21"/>
       <c r="E102" s="21"/>
       <c r="F102" s="21"/>
@@ -5348,7 +5088,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="21"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="4:9" ht="15.75" customHeight="1">
       <c r="D103" s="21"/>
       <c r="E103" s="21"/>
       <c r="F103" s="21"/>
@@ -5356,7 +5096,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="4:9" ht="15.75" customHeight="1">
       <c r="D104" s="21"/>
       <c r="E104" s="21"/>
       <c r="F104" s="21"/>
@@ -5364,7 +5104,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="4:9" ht="15.75" customHeight="1">
       <c r="D105" s="21"/>
       <c r="E105" s="21"/>
       <c r="F105" s="21"/>
@@ -5372,7 +5112,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="4:9" ht="15.75" customHeight="1">
       <c r="D106" s="21"/>
       <c r="E106" s="21"/>
       <c r="F106" s="21"/>
@@ -5380,7 +5120,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="4:9" ht="15.75" customHeight="1">
       <c r="D107" s="21"/>
       <c r="E107" s="21"/>
       <c r="F107" s="21"/>
@@ -5388,7 +5128,7 @@
       <c r="H107" s="21"/>
       <c r="I107" s="21"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="4:9" ht="15.75" customHeight="1">
       <c r="D108" s="21"/>
       <c r="E108" s="21"/>
       <c r="F108" s="21"/>
@@ -5396,7 +5136,7 @@
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="4:9" ht="15.75" customHeight="1">
       <c r="D109" s="21"/>
       <c r="E109" s="21"/>
       <c r="F109" s="21"/>
@@ -5404,7 +5144,7 @@
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="4:9" ht="15.75" customHeight="1">
       <c r="D110" s="21"/>
       <c r="E110" s="21"/>
       <c r="F110" s="21"/>
@@ -5412,7 +5152,7 @@
       <c r="H110" s="21"/>
       <c r="I110" s="21"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="4:9" ht="15.75" customHeight="1">
       <c r="D111" s="21"/>
       <c r="E111" s="21"/>
       <c r="F111" s="21"/>
@@ -5420,7 +5160,7 @@
       <c r="H111" s="21"/>
       <c r="I111" s="21"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="4:9" ht="15.75" customHeight="1">
       <c r="D112" s="21"/>
       <c r="E112" s="21"/>
       <c r="F112" s="21"/>
@@ -5428,7 +5168,7 @@
       <c r="H112" s="21"/>
       <c r="I112" s="21"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="4:9" ht="15.75" customHeight="1">
       <c r="D113" s="21"/>
       <c r="E113" s="21"/>
       <c r="F113" s="21"/>
@@ -5436,7 +5176,7 @@
       <c r="H113" s="21"/>
       <c r="I113" s="21"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="4:9" ht="15.75" customHeight="1">
       <c r="D114" s="21"/>
       <c r="E114" s="21"/>
       <c r="F114" s="21"/>
@@ -5444,7 +5184,7 @@
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="4:9" ht="15.75" customHeight="1">
       <c r="D115" s="21"/>
       <c r="E115" s="21"/>
       <c r="F115" s="21"/>
@@ -5452,7 +5192,7 @@
       <c r="H115" s="21"/>
       <c r="I115" s="21"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="4:9" ht="15.75" customHeight="1">
       <c r="D116" s="21"/>
       <c r="E116" s="21"/>
       <c r="F116" s="21"/>
@@ -5460,7 +5200,7 @@
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="4:9" ht="15.75" customHeight="1">
       <c r="D117" s="21"/>
       <c r="E117" s="21"/>
       <c r="F117" s="21"/>
@@ -5468,7 +5208,7 @@
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="4:9" ht="15.75" customHeight="1">
       <c r="D118" s="21"/>
       <c r="E118" s="21"/>
       <c r="F118" s="21"/>
@@ -5476,7 +5216,7 @@
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="4:9" ht="15.75" customHeight="1">
       <c r="D119" s="21"/>
       <c r="E119" s="21"/>
       <c r="F119" s="21"/>
@@ -5484,7 +5224,7 @@
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="4:9" ht="15.75" customHeight="1">
       <c r="D120" s="21"/>
       <c r="E120" s="21"/>
       <c r="F120" s="21"/>
@@ -5492,7 +5232,7 @@
       <c r="H120" s="21"/>
       <c r="I120" s="21"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="4:9" ht="15.75" customHeight="1">
       <c r="D121" s="21"/>
       <c r="E121" s="21"/>
       <c r="F121" s="21"/>
@@ -5500,7 +5240,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="4:9" ht="15.75" customHeight="1">
       <c r="D122" s="21"/>
       <c r="E122" s="21"/>
       <c r="F122" s="21"/>
@@ -5508,7 +5248,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="4:9" ht="15.75" customHeight="1">
       <c r="D123" s="21"/>
       <c r="E123" s="21"/>
       <c r="F123" s="21"/>
@@ -5516,7 +5256,7 @@
       <c r="H123" s="21"/>
       <c r="I123" s="21"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="4:9" ht="15.75" customHeight="1">
       <c r="D124" s="21"/>
       <c r="E124" s="21"/>
       <c r="F124" s="21"/>
@@ -5524,7 +5264,7 @@
       <c r="H124" s="21"/>
       <c r="I124" s="21"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="4:9" ht="15.75" customHeight="1">
       <c r="D125" s="21"/>
       <c r="E125" s="21"/>
       <c r="F125" s="21"/>
@@ -5532,7 +5272,7 @@
       <c r="H125" s="21"/>
       <c r="I125" s="21"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="4:9" ht="15.75" customHeight="1">
       <c r="D126" s="21"/>
       <c r="E126" s="21"/>
       <c r="F126" s="21"/>
@@ -5540,7 +5280,7 @@
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="4:9" ht="15.75" customHeight="1">
       <c r="D127" s="21"/>
       <c r="E127" s="21"/>
       <c r="F127" s="21"/>
@@ -5548,7 +5288,7 @@
       <c r="H127" s="21"/>
       <c r="I127" s="21"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="4:9" ht="15.75" customHeight="1">
       <c r="D128" s="21"/>
       <c r="E128" s="21"/>
       <c r="F128" s="21"/>
@@ -5556,7 +5296,7 @@
       <c r="H128" s="21"/>
       <c r="I128" s="21"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="4:9" ht="15.75" customHeight="1">
       <c r="D129" s="21"/>
       <c r="E129" s="21"/>
       <c r="F129" s="21"/>
@@ -5564,7 +5304,7 @@
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="4:9" ht="15.75" customHeight="1">
       <c r="D130" s="21"/>
       <c r="E130" s="21"/>
       <c r="F130" s="21"/>
@@ -5572,7 +5312,7 @@
       <c r="H130" s="21"/>
       <c r="I130" s="21"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="4:9" ht="15.75" customHeight="1">
       <c r="D131" s="21"/>
       <c r="E131" s="21"/>
       <c r="F131" s="21"/>
@@ -5580,7 +5320,7 @@
       <c r="H131" s="21"/>
       <c r="I131" s="21"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="4:9" ht="15.75" customHeight="1">
       <c r="D132" s="21"/>
       <c r="E132" s="21"/>
       <c r="F132" s="21"/>
@@ -5588,7 +5328,7 @@
       <c r="H132" s="21"/>
       <c r="I132" s="21"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="4:9" ht="15.75" customHeight="1">
       <c r="D133" s="21"/>
       <c r="E133" s="21"/>
       <c r="F133" s="21"/>
@@ -5596,7 +5336,7 @@
       <c r="H133" s="21"/>
       <c r="I133" s="21"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="4:9" ht="15.75" customHeight="1">
       <c r="D134" s="21"/>
       <c r="E134" s="21"/>
       <c r="F134" s="21"/>
@@ -5604,7 +5344,7 @@
       <c r="H134" s="21"/>
       <c r="I134" s="21"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="4:9" ht="15.75" customHeight="1">
       <c r="D135" s="21"/>
       <c r="E135" s="21"/>
       <c r="F135" s="21"/>
@@ -5612,7 +5352,7 @@
       <c r="H135" s="21"/>
       <c r="I135" s="21"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="4:9" ht="15.75" customHeight="1">
       <c r="D136" s="21"/>
       <c r="E136" s="21"/>
       <c r="F136" s="21"/>
@@ -5620,7 +5360,7 @@
       <c r="H136" s="21"/>
       <c r="I136" s="21"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="4:9" ht="15.75" customHeight="1">
       <c r="D137" s="21"/>
       <c r="E137" s="21"/>
       <c r="F137" s="21"/>
@@ -5628,7 +5368,7 @@
       <c r="H137" s="21"/>
       <c r="I137" s="21"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="4:9" ht="15.75" customHeight="1">
       <c r="D138" s="21"/>
       <c r="E138" s="21"/>
       <c r="F138" s="21"/>
@@ -5636,7 +5376,7 @@
       <c r="H138" s="21"/>
       <c r="I138" s="21"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="4:9" ht="15.75" customHeight="1">
       <c r="D139" s="21"/>
       <c r="E139" s="21"/>
       <c r="F139" s="21"/>
@@ -5644,7 +5384,7 @@
       <c r="H139" s="21"/>
       <c r="I139" s="21"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="4:9" ht="15.75" customHeight="1">
       <c r="D140" s="21"/>
       <c r="E140" s="21"/>
       <c r="F140" s="21"/>
@@ -5652,7 +5392,7 @@
       <c r="H140" s="21"/>
       <c r="I140" s="21"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="4:9" ht="15.75" customHeight="1">
       <c r="D141" s="21"/>
       <c r="E141" s="21"/>
       <c r="F141" s="21"/>
@@ -5660,7 +5400,7 @@
       <c r="H141" s="21"/>
       <c r="I141" s="21"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="4:9" ht="15.75" customHeight="1">
       <c r="D142" s="21"/>
       <c r="E142" s="21"/>
       <c r="F142" s="21"/>
@@ -5668,7 +5408,7 @@
       <c r="H142" s="21"/>
       <c r="I142" s="21"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="4:9" ht="15.75" customHeight="1">
       <c r="D143" s="21"/>
       <c r="E143" s="21"/>
       <c r="F143" s="21"/>
@@ -5676,7 +5416,7 @@
       <c r="H143" s="21"/>
       <c r="I143" s="21"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="4:9" ht="15.75" customHeight="1">
       <c r="D144" s="21"/>
       <c r="E144" s="21"/>
       <c r="F144" s="21"/>
@@ -5684,7 +5424,7 @@
       <c r="H144" s="21"/>
       <c r="I144" s="21"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="4:9" ht="15.75" customHeight="1">
       <c r="D145" s="21"/>
       <c r="E145" s="21"/>
       <c r="F145" s="21"/>
@@ -5692,7 +5432,7 @@
       <c r="H145" s="21"/>
       <c r="I145" s="21"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="4:9" ht="15.75" customHeight="1">
       <c r="D146" s="21"/>
       <c r="E146" s="21"/>
       <c r="F146" s="21"/>
@@ -5700,7 +5440,7 @@
       <c r="H146" s="21"/>
       <c r="I146" s="21"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="4:9" ht="15.75" customHeight="1">
       <c r="D147" s="21"/>
       <c r="E147" s="21"/>
       <c r="F147" s="21"/>
@@ -5708,7 +5448,7 @@
       <c r="H147" s="21"/>
       <c r="I147" s="21"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="4:9" ht="15.75" customHeight="1">
       <c r="D148" s="21"/>
       <c r="E148" s="21"/>
       <c r="F148" s="21"/>
@@ -5716,7 +5456,7 @@
       <c r="H148" s="21"/>
       <c r="I148" s="21"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="4:9" ht="15.75" customHeight="1">
       <c r="D149" s="21"/>
       <c r="E149" s="21"/>
       <c r="F149" s="21"/>
@@ -5724,7 +5464,7 @@
       <c r="H149" s="21"/>
       <c r="I149" s="21"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="4:9" ht="15.75" customHeight="1">
       <c r="D150" s="21"/>
       <c r="E150" s="21"/>
       <c r="F150" s="21"/>
@@ -5732,7 +5472,7 @@
       <c r="H150" s="21"/>
       <c r="I150" s="21"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="4:9" ht="15.75" customHeight="1">
       <c r="D151" s="21"/>
       <c r="E151" s="21"/>
       <c r="F151" s="21"/>
@@ -5740,7 +5480,7 @@
       <c r="H151" s="21"/>
       <c r="I151" s="21"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="4:9" ht="15.75" customHeight="1">
       <c r="D152" s="21"/>
       <c r="E152" s="21"/>
       <c r="F152" s="21"/>
@@ -5748,7 +5488,7 @@
       <c r="H152" s="21"/>
       <c r="I152" s="21"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="4:9" ht="15.75" customHeight="1">
       <c r="D153" s="21"/>
       <c r="E153" s="21"/>
       <c r="F153" s="21"/>
@@ -5756,7 +5496,7 @@
       <c r="H153" s="21"/>
       <c r="I153" s="21"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="4:9" ht="15.75" customHeight="1">
       <c r="D154" s="21"/>
       <c r="E154" s="21"/>
       <c r="F154" s="21"/>
@@ -5764,7 +5504,7 @@
       <c r="H154" s="21"/>
       <c r="I154" s="21"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="4:9" ht="15.75" customHeight="1">
       <c r="D155" s="21"/>
       <c r="E155" s="21"/>
       <c r="F155" s="21"/>
@@ -5772,7 +5512,7 @@
       <c r="H155" s="21"/>
       <c r="I155" s="21"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="4:9" ht="15.75" customHeight="1">
       <c r="D156" s="21"/>
       <c r="E156" s="21"/>
       <c r="F156" s="21"/>
@@ -5780,7 +5520,7 @@
       <c r="H156" s="21"/>
       <c r="I156" s="21"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="4:9" ht="15.75" customHeight="1">
       <c r="D157" s="21"/>
       <c r="E157" s="21"/>
       <c r="F157" s="21"/>
@@ -5788,7 +5528,7 @@
       <c r="H157" s="21"/>
       <c r="I157" s="21"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="4:9" ht="15.75" customHeight="1">
       <c r="D158" s="21"/>
       <c r="E158" s="21"/>
       <c r="F158" s="21"/>
@@ -5796,7 +5536,7 @@
       <c r="H158" s="21"/>
       <c r="I158" s="21"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="4:9" ht="15.75" customHeight="1">
       <c r="D159" s="21"/>
       <c r="E159" s="21"/>
       <c r="F159" s="21"/>
@@ -5804,7 +5544,7 @@
       <c r="H159" s="21"/>
       <c r="I159" s="21"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="4:9" ht="15.75" customHeight="1">
       <c r="D160" s="21"/>
       <c r="E160" s="21"/>
       <c r="F160" s="21"/>
@@ -5812,7 +5552,7 @@
       <c r="H160" s="21"/>
       <c r="I160" s="21"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="4:9" ht="15.75" customHeight="1">
       <c r="D161" s="21"/>
       <c r="E161" s="21"/>
       <c r="F161" s="21"/>
@@ -5820,7 +5560,7 @@
       <c r="H161" s="21"/>
       <c r="I161" s="21"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="4:9" ht="15.75" customHeight="1">
       <c r="D162" s="21"/>
       <c r="E162" s="21"/>
       <c r="F162" s="21"/>
@@ -5828,7 +5568,7 @@
       <c r="H162" s="21"/>
       <c r="I162" s="21"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="4:9" ht="15.75" customHeight="1">
       <c r="D163" s="21"/>
       <c r="E163" s="21"/>
       <c r="F163" s="21"/>
@@ -5836,7 +5576,7 @@
       <c r="H163" s="21"/>
       <c r="I163" s="21"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="4:9" ht="15.75" customHeight="1">
       <c r="D164" s="21"/>
       <c r="E164" s="21"/>
       <c r="F164" s="21"/>
@@ -5844,7 +5584,7 @@
       <c r="H164" s="21"/>
       <c r="I164" s="21"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="4:9" ht="15.75" customHeight="1">
       <c r="D165" s="21"/>
       <c r="E165" s="21"/>
       <c r="F165" s="21"/>
@@ -5852,7 +5592,7 @@
       <c r="H165" s="21"/>
       <c r="I165" s="21"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="4:9" ht="15.75" customHeight="1">
       <c r="D166" s="21"/>
       <c r="E166" s="21"/>
       <c r="F166" s="21"/>
@@ -5860,7 +5600,7 @@
       <c r="H166" s="21"/>
       <c r="I166" s="21"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="4:9" ht="15.75" customHeight="1">
       <c r="D167" s="21"/>
       <c r="E167" s="21"/>
       <c r="F167" s="21"/>
@@ -5868,7 +5608,7 @@
       <c r="H167" s="21"/>
       <c r="I167" s="21"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="4:9" ht="15.75" customHeight="1">
       <c r="D168" s="21"/>
       <c r="E168" s="21"/>
       <c r="F168" s="21"/>
@@ -5876,7 +5616,7 @@
       <c r="H168" s="21"/>
       <c r="I168" s="21"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="4:9" ht="15.75" customHeight="1">
       <c r="D169" s="21"/>
       <c r="E169" s="21"/>
       <c r="F169" s="21"/>
@@ -5884,7 +5624,7 @@
       <c r="H169" s="21"/>
       <c r="I169" s="21"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="4:9" ht="15.75" customHeight="1">
       <c r="D170" s="21"/>
       <c r="E170" s="21"/>
       <c r="F170" s="21"/>
@@ -5892,7 +5632,7 @@
       <c r="H170" s="21"/>
       <c r="I170" s="21"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="4:9" ht="15.75" customHeight="1">
       <c r="D171" s="21"/>
       <c r="E171" s="21"/>
       <c r="F171" s="21"/>
@@ -5900,7 +5640,7 @@
       <c r="H171" s="21"/>
       <c r="I171" s="21"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="4:9" ht="15.75" customHeight="1">
       <c r="D172" s="21"/>
       <c r="E172" s="21"/>
       <c r="F172" s="21"/>
@@ -5908,7 +5648,7 @@
       <c r="H172" s="21"/>
       <c r="I172" s="21"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="4:9" ht="15.75" customHeight="1">
       <c r="D173" s="21"/>
       <c r="E173" s="21"/>
       <c r="F173" s="21"/>
@@ -5916,7 +5656,7 @@
       <c r="H173" s="21"/>
       <c r="I173" s="21"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="4:9" ht="15.75" customHeight="1">
       <c r="D174" s="21"/>
       <c r="E174" s="21"/>
       <c r="F174" s="21"/>
@@ -5924,7 +5664,7 @@
       <c r="H174" s="21"/>
       <c r="I174" s="21"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="4:9" ht="15.75" customHeight="1">
       <c r="D175" s="21"/>
       <c r="E175" s="21"/>
       <c r="F175" s="21"/>
@@ -5932,7 +5672,7 @@
       <c r="H175" s="21"/>
       <c r="I175" s="21"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="4:9" ht="15.75" customHeight="1">
       <c r="D176" s="21"/>
       <c r="E176" s="21"/>
       <c r="F176" s="21"/>
@@ -5940,7 +5680,7 @@
       <c r="H176" s="21"/>
       <c r="I176" s="21"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="4:9" ht="15.75" customHeight="1">
       <c r="D177" s="21"/>
       <c r="E177" s="21"/>
       <c r="F177" s="21"/>
@@ -5948,7 +5688,7 @@
       <c r="H177" s="21"/>
       <c r="I177" s="21"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="4:9" ht="15.75" customHeight="1">
       <c r="D178" s="21"/>
       <c r="E178" s="21"/>
       <c r="F178" s="21"/>
@@ -5956,7 +5696,7 @@
       <c r="H178" s="21"/>
       <c r="I178" s="21"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="4:9" ht="15.75" customHeight="1">
       <c r="D179" s="21"/>
       <c r="E179" s="21"/>
       <c r="F179" s="21"/>
@@ -5964,7 +5704,7 @@
       <c r="H179" s="21"/>
       <c r="I179" s="21"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="4:9" ht="15.75" customHeight="1">
       <c r="D180" s="21"/>
       <c r="E180" s="21"/>
       <c r="F180" s="21"/>
@@ -5972,7 +5712,7 @@
       <c r="H180" s="21"/>
       <c r="I180" s="21"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="4:9" ht="15.75" customHeight="1">
       <c r="D181" s="21"/>
       <c r="E181" s="21"/>
       <c r="F181" s="21"/>
@@ -5980,7 +5720,7 @@
       <c r="H181" s="21"/>
       <c r="I181" s="21"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="4:9" ht="15.75" customHeight="1">
       <c r="D182" s="21"/>
       <c r="E182" s="21"/>
       <c r="F182" s="21"/>
@@ -5988,7 +5728,7 @@
       <c r="H182" s="21"/>
       <c r="I182" s="21"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="4:9" ht="15.75" customHeight="1">
       <c r="D183" s="21"/>
       <c r="E183" s="21"/>
       <c r="F183" s="21"/>
@@ -5996,7 +5736,7 @@
       <c r="H183" s="21"/>
       <c r="I183" s="21"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="4:9" ht="15.75" customHeight="1">
       <c r="D184" s="21"/>
       <c r="E184" s="21"/>
       <c r="F184" s="21"/>
@@ -6004,7 +5744,7 @@
       <c r="H184" s="21"/>
       <c r="I184" s="21"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="4:9" ht="15.75" customHeight="1">
       <c r="D185" s="21"/>
       <c r="E185" s="21"/>
       <c r="F185" s="21"/>
@@ -6012,7 +5752,7 @@
       <c r="H185" s="21"/>
       <c r="I185" s="21"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="4:9" ht="15.75" customHeight="1">
       <c r="D186" s="21"/>
       <c r="E186" s="21"/>
       <c r="F186" s="21"/>
@@ -6020,7 +5760,7 @@
       <c r="H186" s="21"/>
       <c r="I186" s="21"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="4:9" ht="15.75" customHeight="1">
       <c r="D187" s="21"/>
       <c r="E187" s="21"/>
       <c r="F187" s="21"/>
@@ -6028,7 +5768,7 @@
       <c r="H187" s="21"/>
       <c r="I187" s="21"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="4:9" ht="15.75" customHeight="1">
       <c r="D188" s="21"/>
       <c r="E188" s="21"/>
       <c r="F188" s="21"/>
@@ -6036,7 +5776,7 @@
       <c r="H188" s="21"/>
       <c r="I188" s="21"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="4:9" ht="15.75" customHeight="1">
       <c r="D189" s="21"/>
       <c r="E189" s="21"/>
       <c r="F189" s="21"/>
@@ -6044,7 +5784,7 @@
       <c r="H189" s="21"/>
       <c r="I189" s="21"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="4:9" ht="15.75" customHeight="1">
       <c r="D190" s="21"/>
       <c r="E190" s="21"/>
       <c r="F190" s="21"/>
@@ -6052,7 +5792,7 @@
       <c r="H190" s="21"/>
       <c r="I190" s="21"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="4:9" ht="15.75" customHeight="1">
       <c r="D191" s="21"/>
       <c r="E191" s="21"/>
       <c r="F191" s="21"/>
@@ -6060,7 +5800,7 @@
       <c r="H191" s="21"/>
       <c r="I191" s="21"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="4:9" ht="15.75" customHeight="1">
       <c r="D192" s="21"/>
       <c r="E192" s="21"/>
       <c r="F192" s="21"/>
@@ -6068,7 +5808,7 @@
       <c r="H192" s="21"/>
       <c r="I192" s="21"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="4:9" ht="15.75" customHeight="1">
       <c r="D193" s="21"/>
       <c r="E193" s="21"/>
       <c r="F193" s="21"/>
@@ -6076,7 +5816,7 @@
       <c r="H193" s="21"/>
       <c r="I193" s="21"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="4:9" ht="15.75" customHeight="1">
       <c r="D194" s="21"/>
       <c r="E194" s="21"/>
       <c r="F194" s="21"/>
@@ -6084,7 +5824,7 @@
       <c r="H194" s="21"/>
       <c r="I194" s="21"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="4:9" ht="15.75" customHeight="1">
       <c r="D195" s="21"/>
       <c r="E195" s="21"/>
       <c r="F195" s="21"/>
@@ -6092,7 +5832,7 @@
       <c r="H195" s="21"/>
       <c r="I195" s="21"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="4:9" ht="15.75" customHeight="1">
       <c r="D196" s="21"/>
       <c r="E196" s="21"/>
       <c r="F196" s="21"/>
@@ -6100,7 +5840,7 @@
       <c r="H196" s="21"/>
       <c r="I196" s="21"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="4:9" ht="15.75" customHeight="1">
       <c r="D197" s="21"/>
       <c r="E197" s="21"/>
       <c r="F197" s="21"/>
@@ -6108,7 +5848,7 @@
       <c r="H197" s="21"/>
       <c r="I197" s="21"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="4:9" ht="15.75" customHeight="1">
       <c r="D198" s="21"/>
       <c r="E198" s="21"/>
       <c r="F198" s="21"/>
@@ -6116,7 +5856,7 @@
       <c r="H198" s="21"/>
       <c r="I198" s="21"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="4:9" ht="15.75" customHeight="1">
       <c r="D199" s="21"/>
       <c r="E199" s="21"/>
       <c r="F199" s="21"/>
@@ -6124,7 +5864,7 @@
       <c r="H199" s="21"/>
       <c r="I199" s="21"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="4:9" ht="15.75" customHeight="1">
       <c r="D200" s="21"/>
       <c r="E200" s="21"/>
       <c r="F200" s="21"/>
@@ -6132,7 +5872,7 @@
       <c r="H200" s="21"/>
       <c r="I200" s="21"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="4:9" ht="15.75" customHeight="1">
       <c r="D201" s="21"/>
       <c r="E201" s="21"/>
       <c r="F201" s="21"/>
@@ -6140,7 +5880,7 @@
       <c r="H201" s="21"/>
       <c r="I201" s="21"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="4:9" ht="15.75" customHeight="1">
       <c r="D202" s="21"/>
       <c r="E202" s="21"/>
       <c r="F202" s="21"/>
@@ -6148,7 +5888,7 @@
       <c r="H202" s="21"/>
       <c r="I202" s="21"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="4:9" ht="15.75" customHeight="1">
       <c r="D203" s="21"/>
       <c r="E203" s="21"/>
       <c r="F203" s="21"/>
@@ -6156,7 +5896,7 @@
       <c r="H203" s="21"/>
       <c r="I203" s="21"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="4:9" ht="15.75" customHeight="1">
       <c r="D204" s="21"/>
       <c r="E204" s="21"/>
       <c r="F204" s="21"/>
@@ -6164,7 +5904,7 @@
       <c r="H204" s="21"/>
       <c r="I204" s="21"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="4:9" ht="15.75" customHeight="1">
       <c r="D205" s="21"/>
       <c r="E205" s="21"/>
       <c r="F205" s="21"/>
@@ -6172,7 +5912,7 @@
       <c r="H205" s="21"/>
       <c r="I205" s="21"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="4:9" ht="15.75" customHeight="1">
       <c r="D206" s="21"/>
       <c r="E206" s="21"/>
       <c r="F206" s="21"/>
@@ -6180,7 +5920,7 @@
       <c r="H206" s="21"/>
       <c r="I206" s="21"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="4:9" ht="15.75" customHeight="1">
       <c r="D207" s="21"/>
       <c r="E207" s="21"/>
       <c r="F207" s="21"/>
@@ -6188,7 +5928,7 @@
       <c r="H207" s="21"/>
       <c r="I207" s="21"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="4:9" ht="15.75" customHeight="1">
       <c r="D208" s="21"/>
       <c r="E208" s="21"/>
       <c r="F208" s="21"/>
@@ -6196,7 +5936,7 @@
       <c r="H208" s="21"/>
       <c r="I208" s="21"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="4:9" ht="15.75" customHeight="1">
       <c r="D209" s="21"/>
       <c r="E209" s="21"/>
       <c r="F209" s="21"/>
@@ -6204,7 +5944,7 @@
       <c r="H209" s="21"/>
       <c r="I209" s="21"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="4:9" ht="15.75" customHeight="1">
       <c r="D210" s="21"/>
       <c r="E210" s="21"/>
       <c r="F210" s="21"/>
@@ -6212,7 +5952,7 @@
       <c r="H210" s="21"/>
       <c r="I210" s="21"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="4:9" ht="15.75" customHeight="1">
       <c r="D211" s="21"/>
       <c r="E211" s="21"/>
       <c r="F211" s="21"/>
@@ -6220,7 +5960,7 @@
       <c r="H211" s="21"/>
       <c r="I211" s="21"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="4:9" ht="15.75" customHeight="1">
       <c r="D212" s="21"/>
       <c r="E212" s="21"/>
       <c r="F212" s="21"/>
@@ -6228,7 +5968,7 @@
       <c r="H212" s="21"/>
       <c r="I212" s="21"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="4:9" ht="15.75" customHeight="1">
       <c r="D213" s="21"/>
       <c r="E213" s="21"/>
       <c r="F213" s="21"/>
@@ -6236,7 +5976,7 @@
       <c r="H213" s="21"/>
       <c r="I213" s="21"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="4:9" ht="15.75" customHeight="1">
       <c r="D214" s="21"/>
       <c r="E214" s="21"/>
       <c r="F214" s="21"/>
@@ -6244,7 +5984,7 @@
       <c r="H214" s="21"/>
       <c r="I214" s="21"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="4:9" ht="15.75" customHeight="1">
       <c r="D215" s="21"/>
       <c r="E215" s="21"/>
       <c r="F215" s="21"/>
@@ -6252,7 +5992,7 @@
       <c r="H215" s="21"/>
       <c r="I215" s="21"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="4:9" ht="15.75" customHeight="1">
       <c r="D216" s="21"/>
       <c r="E216" s="21"/>
       <c r="F216" s="21"/>
@@ -6260,7 +6000,7 @@
       <c r="H216" s="21"/>
       <c r="I216" s="21"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="4:9" ht="15.75" customHeight="1">
       <c r="D217" s="21"/>
       <c r="E217" s="21"/>
       <c r="F217" s="21"/>
@@ -6268,7 +6008,7 @@
       <c r="H217" s="21"/>
       <c r="I217" s="21"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="4:9" ht="15.75" customHeight="1">
       <c r="D218" s="21"/>
       <c r="E218" s="21"/>
       <c r="F218" s="21"/>
@@ -6276,7 +6016,7 @@
       <c r="H218" s="21"/>
       <c r="I218" s="21"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="4:9" ht="15.75" customHeight="1">
       <c r="D219" s="21"/>
       <c r="E219" s="21"/>
       <c r="F219" s="21"/>
@@ -6284,7 +6024,7 @@
       <c r="H219" s="21"/>
       <c r="I219" s="21"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="4:9" ht="15.75" customHeight="1">
       <c r="D220" s="21"/>
       <c r="E220" s="21"/>
       <c r="F220" s="21"/>
@@ -6292,10 +6032,10 @@
       <c r="H220" s="21"/>
       <c r="I220" s="21"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="4:9" ht="15.75" customHeight="1"/>
+    <row r="222" spans="4:9" ht="15.75" customHeight="1"/>
+    <row r="223" spans="4:9" ht="15.75" customHeight="1"/>
+    <row r="224" spans="4:9" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -7073,53 +6813,52 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="14.43"/>
-    <col customWidth="1" min="3" max="3" width="24.710000000000001"/>
-    <col customWidth="1" min="4" max="6" width="14.43"/>
+    <col min="1" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="23" t="s">
         <v>166</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>168</v>
       </c>
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
@@ -7141,26 +6880,26 @@
       <c r="Y1" s="22"/>
       <c r="Z1" s="22"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C2" s="25">
         <f ca="1">NOW()</f>
-        <v>44830.506805555553</v>
+        <v>45778.924821412038</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -7182,7 +6921,7 @@
       <c r="Y2" s="22"/>
       <c r="Z2" s="22"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -7210,7 +6949,7 @@
       <c r="Y3" s="22"/>
       <c r="Z3" s="22"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -7238,7 +6977,7 @@
       <c r="Y4" s="22"/>
       <c r="Z4" s="22"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -7266,7 +7005,7 @@
       <c r="Y5" s="22"/>
       <c r="Z5" s="22"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -7294,7 +7033,7 @@
       <c r="Y6" s="22"/>
       <c r="Z6" s="22"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -7322,7 +7061,7 @@
       <c r="Y7" s="22"/>
       <c r="Z7" s="22"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -7350,7 +7089,7 @@
       <c r="Y8" s="22"/>
       <c r="Z8" s="22"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -7378,7 +7117,7 @@
       <c r="Y9" s="22"/>
       <c r="Z9" s="22"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -7406,7 +7145,7 @@
       <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -7434,7 +7173,7 @@
       <c r="Y11" s="22"/>
       <c r="Z11" s="22"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -7462,7 +7201,7 @@
       <c r="Y12" s="22"/>
       <c r="Z12" s="22"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -7490,7 +7229,7 @@
       <c r="Y13" s="22"/>
       <c r="Z13" s="22"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -7518,7 +7257,7 @@
       <c r="Y14" s="22"/>
       <c r="Z14" s="22"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -7546,7 +7285,7 @@
       <c r="Y15" s="22"/>
       <c r="Z15" s="22"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -7574,7 +7313,7 @@
       <c r="Y16" s="22"/>
       <c r="Z16" s="22"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -7602,7 +7341,7 @@
       <c r="Y17" s="22"/>
       <c r="Z17" s="22"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -7630,7 +7369,7 @@
       <c r="Y18" s="22"/>
       <c r="Z18" s="22"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -7658,7 +7397,7 @@
       <c r="Y19" s="22"/>
       <c r="Z19" s="22"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -7686,7 +7425,7 @@
       <c r="Y20" s="22"/>
       <c r="Z20" s="22"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -7714,7 +7453,7 @@
       <c r="Y21" s="22"/>
       <c r="Z21" s="22"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -7742,7 +7481,7 @@
       <c r="Y22" s="22"/>
       <c r="Z22" s="22"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -7770,7 +7509,7 @@
       <c r="Y23" s="22"/>
       <c r="Z23" s="22"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -7798,7 +7537,7 @@
       <c r="Y24" s="22"/>
       <c r="Z24" s="22"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -7826,7 +7565,7 @@
       <c r="Y25" s="22"/>
       <c r="Z25" s="22"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -7854,7 +7593,7 @@
       <c r="Y26" s="22"/>
       <c r="Z26" s="22"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -7882,7 +7621,7 @@
       <c r="Y27" s="22"/>
       <c r="Z27" s="22"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -7910,7 +7649,7 @@
       <c r="Y28" s="22"/>
       <c r="Z28" s="22"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -7938,7 +7677,7 @@
       <c r="Y29" s="22"/>
       <c r="Z29" s="22"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -7966,7 +7705,7 @@
       <c r="Y30" s="22"/>
       <c r="Z30" s="22"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -7994,7 +7733,7 @@
       <c r="Y31" s="22"/>
       <c r="Z31" s="22"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -8022,7 +7761,7 @@
       <c r="Y32" s="22"/>
       <c r="Z32" s="22"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -8050,7 +7789,7 @@
       <c r="Y33" s="22"/>
       <c r="Z33" s="22"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -8078,7 +7817,7 @@
       <c r="Y34" s="22"/>
       <c r="Z34" s="22"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -8106,7 +7845,7 @@
       <c r="Y35" s="22"/>
       <c r="Z35" s="22"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -8134,7 +7873,7 @@
       <c r="Y36" s="22"/>
       <c r="Z36" s="22"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -8162,7 +7901,7 @@
       <c r="Y37" s="22"/>
       <c r="Z37" s="22"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -8190,7 +7929,7 @@
       <c r="Y38" s="22"/>
       <c r="Z38" s="22"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -8218,7 +7957,7 @@
       <c r="Y39" s="22"/>
       <c r="Z39" s="22"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -8246,7 +7985,7 @@
       <c r="Y40" s="22"/>
       <c r="Z40" s="22"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -8274,7 +8013,7 @@
       <c r="Y41" s="22"/>
       <c r="Z41" s="22"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -8302,7 +8041,7 @@
       <c r="Y42" s="22"/>
       <c r="Z42" s="22"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -8330,7 +8069,7 @@
       <c r="Y43" s="22"/>
       <c r="Z43" s="22"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -8358,7 +8097,7 @@
       <c r="Y44" s="22"/>
       <c r="Z44" s="22"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -8386,7 +8125,7 @@
       <c r="Y45" s="22"/>
       <c r="Z45" s="22"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -8414,7 +8153,7 @@
       <c r="Y46" s="22"/>
       <c r="Z46" s="22"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -8442,7 +8181,7 @@
       <c r="Y47" s="22"/>
       <c r="Z47" s="22"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -8470,7 +8209,7 @@
       <c r="Y48" s="22"/>
       <c r="Z48" s="22"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -8498,7 +8237,7 @@
       <c r="Y49" s="22"/>
       <c r="Z49" s="22"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -8526,7 +8265,7 @@
       <c r="Y50" s="22"/>
       <c r="Z50" s="22"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -8554,7 +8293,7 @@
       <c r="Y51" s="22"/>
       <c r="Z51" s="22"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -8582,7 +8321,7 @@
       <c r="Y52" s="22"/>
       <c r="Z52" s="22"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -8610,7 +8349,7 @@
       <c r="Y53" s="22"/>
       <c r="Z53" s="22"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -8638,7 +8377,7 @@
       <c r="Y54" s="22"/>
       <c r="Z54" s="22"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -8666,7 +8405,7 @@
       <c r="Y55" s="22"/>
       <c r="Z55" s="22"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -8694,7 +8433,7 @@
       <c r="Y56" s="22"/>
       <c r="Z56" s="22"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -8722,7 +8461,7 @@
       <c r="Y57" s="22"/>
       <c r="Z57" s="22"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
@@ -8750,7 +8489,7 @@
       <c r="Y58" s="22"/>
       <c r="Z58" s="22"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -8778,7 +8517,7 @@
       <c r="Y59" s="22"/>
       <c r="Z59" s="22"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -8806,7 +8545,7 @@
       <c r="Y60" s="22"/>
       <c r="Z60" s="22"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -8834,7 +8573,7 @@
       <c r="Y61" s="22"/>
       <c r="Z61" s="22"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -8862,7 +8601,7 @@
       <c r="Y62" s="22"/>
       <c r="Z62" s="22"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -8890,7 +8629,7 @@
       <c r="Y63" s="22"/>
       <c r="Z63" s="22"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="22"/>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
@@ -8918,7 +8657,7 @@
       <c r="Y64" s="22"/>
       <c r="Z64" s="22"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -8946,7 +8685,7 @@
       <c r="Y65" s="22"/>
       <c r="Z65" s="22"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -8974,7 +8713,7 @@
       <c r="Y66" s="22"/>
       <c r="Z66" s="22"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
@@ -9002,7 +8741,7 @@
       <c r="Y67" s="22"/>
       <c r="Z67" s="22"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -9030,7 +8769,7 @@
       <c r="Y68" s="22"/>
       <c r="Z68" s="22"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="22"/>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -9058,7 +8797,7 @@
       <c r="Y69" s="22"/>
       <c r="Z69" s="22"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
@@ -9086,7 +8825,7 @@
       <c r="Y70" s="22"/>
       <c r="Z70" s="22"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -9114,7 +8853,7 @@
       <c r="Y71" s="22"/>
       <c r="Z71" s="22"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
@@ -9142,7 +8881,7 @@
       <c r="Y72" s="22"/>
       <c r="Z72" s="22"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
@@ -9170,7 +8909,7 @@
       <c r="Y73" s="22"/>
       <c r="Z73" s="22"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -9198,7 +8937,7 @@
       <c r="Y74" s="22"/>
       <c r="Z74" s="22"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -9226,7 +8965,7 @@
       <c r="Y75" s="22"/>
       <c r="Z75" s="22"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -9254,7 +8993,7 @@
       <c r="Y76" s="22"/>
       <c r="Z76" s="22"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
@@ -9282,7 +9021,7 @@
       <c r="Y77" s="22"/>
       <c r="Z77" s="22"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -9310,7 +9049,7 @@
       <c r="Y78" s="22"/>
       <c r="Z78" s="22"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -9338,7 +9077,7 @@
       <c r="Y79" s="22"/>
       <c r="Z79" s="22"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
@@ -9366,7 +9105,7 @@
       <c r="Y80" s="22"/>
       <c r="Z80" s="22"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -9394,7 +9133,7 @@
       <c r="Y81" s="22"/>
       <c r="Z81" s="22"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -9422,7 +9161,7 @@
       <c r="Y82" s="22"/>
       <c r="Z82" s="22"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="22"/>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -9450,7 +9189,7 @@
       <c r="Y83" s="22"/>
       <c r="Z83" s="22"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
@@ -9478,7 +9217,7 @@
       <c r="Y84" s="22"/>
       <c r="Z84" s="22"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="22"/>
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
@@ -9506,7 +9245,7 @@
       <c r="Y85" s="22"/>
       <c r="Z85" s="22"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="22"/>
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
@@ -9534,7 +9273,7 @@
       <c r="Y86" s="22"/>
       <c r="Z86" s="22"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="22"/>
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
@@ -9562,7 +9301,7 @@
       <c r="Y87" s="22"/>
       <c r="Z87" s="22"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="22"/>
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
@@ -9590,7 +9329,7 @@
       <c r="Y88" s="22"/>
       <c r="Z88" s="22"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="22"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
@@ -9618,7 +9357,7 @@
       <c r="Y89" s="22"/>
       <c r="Z89" s="22"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
@@ -9646,7 +9385,7 @@
       <c r="Y90" s="22"/>
       <c r="Z90" s="22"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="22"/>
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
@@ -9674,7 +9413,7 @@
       <c r="Y91" s="22"/>
       <c r="Z91" s="22"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="22"/>
       <c r="B92" s="22"/>
       <c r="C92" s="22"/>
@@ -9702,7 +9441,7 @@
       <c r="Y92" s="22"/>
       <c r="Z92" s="22"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="22"/>
       <c r="B93" s="22"/>
       <c r="C93" s="22"/>
@@ -9730,7 +9469,7 @@
       <c r="Y93" s="22"/>
       <c r="Z93" s="22"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="22"/>
       <c r="B94" s="22"/>
       <c r="C94" s="22"/>
@@ -9758,7 +9497,7 @@
       <c r="Y94" s="22"/>
       <c r="Z94" s="22"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="22"/>
       <c r="B95" s="22"/>
       <c r="C95" s="22"/>
@@ -9786,7 +9525,7 @@
       <c r="Y95" s="22"/>
       <c r="Z95" s="22"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="22"/>
       <c r="B96" s="22"/>
       <c r="C96" s="22"/>
@@ -9814,7 +9553,7 @@
       <c r="Y96" s="22"/>
       <c r="Z96" s="22"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="22"/>
       <c r="B97" s="22"/>
       <c r="C97" s="22"/>
@@ -9842,7 +9581,7 @@
       <c r="Y97" s="22"/>
       <c r="Z97" s="22"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="22"/>
       <c r="B98" s="22"/>
       <c r="C98" s="22"/>
@@ -9870,7 +9609,7 @@
       <c r="Y98" s="22"/>
       <c r="Z98" s="22"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="22"/>
       <c r="B99" s="22"/>
       <c r="C99" s="22"/>
@@ -9898,7 +9637,7 @@
       <c r="Y99" s="22"/>
       <c r="Z99" s="22"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="22"/>
       <c r="B100" s="22"/>
       <c r="C100" s="22"/>
@@ -9926,7 +9665,7 @@
       <c r="Y100" s="22"/>
       <c r="Z100" s="22"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="22"/>
       <c r="B101" s="22"/>
       <c r="C101" s="22"/>
@@ -9954,7 +9693,7 @@
       <c r="Y101" s="22"/>
       <c r="Z101" s="22"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="22"/>
       <c r="B102" s="22"/>
       <c r="C102" s="22"/>
@@ -9982,7 +9721,7 @@
       <c r="Y102" s="22"/>
       <c r="Z102" s="22"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="22"/>
       <c r="B103" s="22"/>
       <c r="C103" s="22"/>
@@ -10010,7 +9749,7 @@
       <c r="Y103" s="22"/>
       <c r="Z103" s="22"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="22"/>
       <c r="B104" s="22"/>
       <c r="C104" s="22"/>
@@ -10038,7 +9777,7 @@
       <c r="Y104" s="22"/>
       <c r="Z104" s="22"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="22"/>
       <c r="B105" s="22"/>
       <c r="C105" s="22"/>
@@ -10066,7 +9805,7 @@
       <c r="Y105" s="22"/>
       <c r="Z105" s="22"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="22"/>
       <c r="B106" s="22"/>
       <c r="C106" s="22"/>
@@ -10094,7 +9833,7 @@
       <c r="Y106" s="22"/>
       <c r="Z106" s="22"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="22"/>
       <c r="B107" s="22"/>
       <c r="C107" s="22"/>
@@ -10122,7 +9861,7 @@
       <c r="Y107" s="22"/>
       <c r="Z107" s="22"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="22"/>
       <c r="B108" s="22"/>
       <c r="C108" s="22"/>
@@ -10150,7 +9889,7 @@
       <c r="Y108" s="22"/>
       <c r="Z108" s="22"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="22"/>
       <c r="B109" s="22"/>
       <c r="C109" s="22"/>
@@ -10178,7 +9917,7 @@
       <c r="Y109" s="22"/>
       <c r="Z109" s="22"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="22"/>
       <c r="B110" s="22"/>
       <c r="C110" s="22"/>
@@ -10206,7 +9945,7 @@
       <c r="Y110" s="22"/>
       <c r="Z110" s="22"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="22"/>
       <c r="B111" s="22"/>
       <c r="C111" s="22"/>
@@ -10234,7 +9973,7 @@
       <c r="Y111" s="22"/>
       <c r="Z111" s="22"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="22"/>
       <c r="B112" s="22"/>
       <c r="C112" s="22"/>
@@ -10262,7 +10001,7 @@
       <c r="Y112" s="22"/>
       <c r="Z112" s="22"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1">
       <c r="A113" s="22"/>
       <c r="B113" s="22"/>
       <c r="C113" s="22"/>
@@ -10290,7 +10029,7 @@
       <c r="Y113" s="22"/>
       <c r="Z113" s="22"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1">
       <c r="A114" s="22"/>
       <c r="B114" s="22"/>
       <c r="C114" s="22"/>
@@ -10318,7 +10057,7 @@
       <c r="Y114" s="22"/>
       <c r="Z114" s="22"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="22"/>
       <c r="B115" s="22"/>
       <c r="C115" s="22"/>
@@ -10346,7 +10085,7 @@
       <c r="Y115" s="22"/>
       <c r="Z115" s="22"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1">
       <c r="A116" s="22"/>
       <c r="B116" s="22"/>
       <c r="C116" s="22"/>
@@ -10374,7 +10113,7 @@
       <c r="Y116" s="22"/>
       <c r="Z116" s="22"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="22"/>
       <c r="B117" s="22"/>
       <c r="C117" s="22"/>
@@ -10402,7 +10141,7 @@
       <c r="Y117" s="22"/>
       <c r="Z117" s="22"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="22"/>
       <c r="B118" s="22"/>
       <c r="C118" s="22"/>
@@ -10430,7 +10169,7 @@
       <c r="Y118" s="22"/>
       <c r="Z118" s="22"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1">
       <c r="A119" s="22"/>
       <c r="B119" s="22"/>
       <c r="C119" s="22"/>
@@ -10458,7 +10197,7 @@
       <c r="Y119" s="22"/>
       <c r="Z119" s="22"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1">
       <c r="A120" s="22"/>
       <c r="B120" s="22"/>
       <c r="C120" s="22"/>
@@ -10486,7 +10225,7 @@
       <c r="Y120" s="22"/>
       <c r="Z120" s="22"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="22"/>
       <c r="B121" s="22"/>
       <c r="C121" s="22"/>
@@ -10514,7 +10253,7 @@
       <c r="Y121" s="22"/>
       <c r="Z121" s="22"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1">
       <c r="A122" s="22"/>
       <c r="B122" s="22"/>
       <c r="C122" s="22"/>
@@ -10542,7 +10281,7 @@
       <c r="Y122" s="22"/>
       <c r="Z122" s="22"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="22"/>
       <c r="B123" s="22"/>
       <c r="C123" s="22"/>
@@ -10570,7 +10309,7 @@
       <c r="Y123" s="22"/>
       <c r="Z123" s="22"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1">
       <c r="A124" s="22"/>
       <c r="B124" s="22"/>
       <c r="C124" s="22"/>
@@ -10598,7 +10337,7 @@
       <c r="Y124" s="22"/>
       <c r="Z124" s="22"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="22"/>
       <c r="B125" s="22"/>
       <c r="C125" s="22"/>
@@ -10626,7 +10365,7 @@
       <c r="Y125" s="22"/>
       <c r="Z125" s="22"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1">
       <c r="A126" s="22"/>
       <c r="B126" s="22"/>
       <c r="C126" s="22"/>
@@ -10654,7 +10393,7 @@
       <c r="Y126" s="22"/>
       <c r="Z126" s="22"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1">
       <c r="A127" s="22"/>
       <c r="B127" s="22"/>
       <c r="C127" s="22"/>
@@ -10682,7 +10421,7 @@
       <c r="Y127" s="22"/>
       <c r="Z127" s="22"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1">
       <c r="A128" s="22"/>
       <c r="B128" s="22"/>
       <c r="C128" s="22"/>
@@ -10710,7 +10449,7 @@
       <c r="Y128" s="22"/>
       <c r="Z128" s="22"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="22"/>
       <c r="B129" s="22"/>
       <c r="C129" s="22"/>
@@ -10738,7 +10477,7 @@
       <c r="Y129" s="22"/>
       <c r="Z129" s="22"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="22"/>
       <c r="B130" s="22"/>
       <c r="C130" s="22"/>
@@ -10766,7 +10505,7 @@
       <c r="Y130" s="22"/>
       <c r="Z130" s="22"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="22"/>
       <c r="B131" s="22"/>
       <c r="C131" s="22"/>
@@ -10794,7 +10533,7 @@
       <c r="Y131" s="22"/>
       <c r="Z131" s="22"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="22"/>
       <c r="B132" s="22"/>
       <c r="C132" s="22"/>
@@ -10822,7 +10561,7 @@
       <c r="Y132" s="22"/>
       <c r="Z132" s="22"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1">
       <c r="A133" s="22"/>
       <c r="B133" s="22"/>
       <c r="C133" s="22"/>
@@ -10850,7 +10589,7 @@
       <c r="Y133" s="22"/>
       <c r="Z133" s="22"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1">
       <c r="A134" s="22"/>
       <c r="B134" s="22"/>
       <c r="C134" s="22"/>
@@ -10878,7 +10617,7 @@
       <c r="Y134" s="22"/>
       <c r="Z134" s="22"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1">
       <c r="A135" s="22"/>
       <c r="B135" s="22"/>
       <c r="C135" s="22"/>
@@ -10906,7 +10645,7 @@
       <c r="Y135" s="22"/>
       <c r="Z135" s="22"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1">
       <c r="A136" s="22"/>
       <c r="B136" s="22"/>
       <c r="C136" s="22"/>
@@ -10934,7 +10673,7 @@
       <c r="Y136" s="22"/>
       <c r="Z136" s="22"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1">
       <c r="A137" s="22"/>
       <c r="B137" s="22"/>
       <c r="C137" s="22"/>
@@ -10962,7 +10701,7 @@
       <c r="Y137" s="22"/>
       <c r="Z137" s="22"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="22"/>
       <c r="B138" s="22"/>
       <c r="C138" s="22"/>
@@ -10990,7 +10729,7 @@
       <c r="Y138" s="22"/>
       <c r="Z138" s="22"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1">
       <c r="A139" s="22"/>
       <c r="B139" s="22"/>
       <c r="C139" s="22"/>
@@ -11018,7 +10757,7 @@
       <c r="Y139" s="22"/>
       <c r="Z139" s="22"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1">
       <c r="A140" s="22"/>
       <c r="B140" s="22"/>
       <c r="C140" s="22"/>
@@ -11046,7 +10785,7 @@
       <c r="Y140" s="22"/>
       <c r="Z140" s="22"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1">
       <c r="A141" s="22"/>
       <c r="B141" s="22"/>
       <c r="C141" s="22"/>
@@ -11074,7 +10813,7 @@
       <c r="Y141" s="22"/>
       <c r="Z141" s="22"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1">
       <c r="A142" s="22"/>
       <c r="B142" s="22"/>
       <c r="C142" s="22"/>
@@ -11102,7 +10841,7 @@
       <c r="Y142" s="22"/>
       <c r="Z142" s="22"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1">
       <c r="A143" s="22"/>
       <c r="B143" s="22"/>
       <c r="C143" s="22"/>
@@ -11130,7 +10869,7 @@
       <c r="Y143" s="22"/>
       <c r="Z143" s="22"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1">
       <c r="A144" s="22"/>
       <c r="B144" s="22"/>
       <c r="C144" s="22"/>
@@ -11158,7 +10897,7 @@
       <c r="Y144" s="22"/>
       <c r="Z144" s="22"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1">
       <c r="A145" s="22"/>
       <c r="B145" s="22"/>
       <c r="C145" s="22"/>
@@ -11186,7 +10925,7 @@
       <c r="Y145" s="22"/>
       <c r="Z145" s="22"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1">
       <c r="A146" s="22"/>
       <c r="B146" s="22"/>
       <c r="C146" s="22"/>
@@ -11214,7 +10953,7 @@
       <c r="Y146" s="22"/>
       <c r="Z146" s="22"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1">
       <c r="A147" s="22"/>
       <c r="B147" s="22"/>
       <c r="C147" s="22"/>
@@ -11242,7 +10981,7 @@
       <c r="Y147" s="22"/>
       <c r="Z147" s="22"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1">
       <c r="A148" s="22"/>
       <c r="B148" s="22"/>
       <c r="C148" s="22"/>
@@ -11270,7 +11009,7 @@
       <c r="Y148" s="22"/>
       <c r="Z148" s="22"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1">
       <c r="A149" s="22"/>
       <c r="B149" s="22"/>
       <c r="C149" s="22"/>
@@ -11298,7 +11037,7 @@
       <c r="Y149" s="22"/>
       <c r="Z149" s="22"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1">
       <c r="A150" s="22"/>
       <c r="B150" s="22"/>
       <c r="C150" s="22"/>
@@ -11326,7 +11065,7 @@
       <c r="Y150" s="22"/>
       <c r="Z150" s="22"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1">
       <c r="A151" s="22"/>
       <c r="B151" s="22"/>
       <c r="C151" s="22"/>
@@ -11354,7 +11093,7 @@
       <c r="Y151" s="22"/>
       <c r="Z151" s="22"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1">
       <c r="A152" s="22"/>
       <c r="B152" s="22"/>
       <c r="C152" s="22"/>
@@ -11382,7 +11121,7 @@
       <c r="Y152" s="22"/>
       <c r="Z152" s="22"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1">
       <c r="A153" s="22"/>
       <c r="B153" s="22"/>
       <c r="C153" s="22"/>
@@ -11410,7 +11149,7 @@
       <c r="Y153" s="22"/>
       <c r="Z153" s="22"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1">
       <c r="A154" s="22"/>
       <c r="B154" s="22"/>
       <c r="C154" s="22"/>
@@ -11438,7 +11177,7 @@
       <c r="Y154" s="22"/>
       <c r="Z154" s="22"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1">
       <c r="A155" s="22"/>
       <c r="B155" s="22"/>
       <c r="C155" s="22"/>
@@ -11466,7 +11205,7 @@
       <c r="Y155" s="22"/>
       <c r="Z155" s="22"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1">
       <c r="A156" s="22"/>
       <c r="B156" s="22"/>
       <c r="C156" s="22"/>
@@ -11494,7 +11233,7 @@
       <c r="Y156" s="22"/>
       <c r="Z156" s="22"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1">
       <c r="A157" s="22"/>
       <c r="B157" s="22"/>
       <c r="C157" s="22"/>
@@ -11522,7 +11261,7 @@
       <c r="Y157" s="22"/>
       <c r="Z157" s="22"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1">
       <c r="A158" s="22"/>
       <c r="B158" s="22"/>
       <c r="C158" s="22"/>
@@ -11550,7 +11289,7 @@
       <c r="Y158" s="22"/>
       <c r="Z158" s="22"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1">
       <c r="A159" s="22"/>
       <c r="B159" s="22"/>
       <c r="C159" s="22"/>
@@ -11578,7 +11317,7 @@
       <c r="Y159" s="22"/>
       <c r="Z159" s="22"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1">
       <c r="A160" s="22"/>
       <c r="B160" s="22"/>
       <c r="C160" s="22"/>
@@ -11606,7 +11345,7 @@
       <c r="Y160" s="22"/>
       <c r="Z160" s="22"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1">
       <c r="A161" s="22"/>
       <c r="B161" s="22"/>
       <c r="C161" s="22"/>
@@ -11634,7 +11373,7 @@
       <c r="Y161" s="22"/>
       <c r="Z161" s="22"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1">
       <c r="A162" s="22"/>
       <c r="B162" s="22"/>
       <c r="C162" s="22"/>
@@ -11662,7 +11401,7 @@
       <c r="Y162" s="22"/>
       <c r="Z162" s="22"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1">
       <c r="A163" s="22"/>
       <c r="B163" s="22"/>
       <c r="C163" s="22"/>
@@ -11690,7 +11429,7 @@
       <c r="Y163" s="22"/>
       <c r="Z163" s="22"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1">
       <c r="A164" s="22"/>
       <c r="B164" s="22"/>
       <c r="C164" s="22"/>
@@ -11718,7 +11457,7 @@
       <c r="Y164" s="22"/>
       <c r="Z164" s="22"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1">
       <c r="A165" s="22"/>
       <c r="B165" s="22"/>
       <c r="C165" s="22"/>
@@ -11746,7 +11485,7 @@
       <c r="Y165" s="22"/>
       <c r="Z165" s="22"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1">
       <c r="A166" s="22"/>
       <c r="B166" s="22"/>
       <c r="C166" s="22"/>
@@ -11774,7 +11513,7 @@
       <c r="Y166" s="22"/>
       <c r="Z166" s="22"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1">
       <c r="A167" s="22"/>
       <c r="B167" s="22"/>
       <c r="C167" s="22"/>
@@ -11802,7 +11541,7 @@
       <c r="Y167" s="22"/>
       <c r="Z167" s="22"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="22"/>
       <c r="B168" s="22"/>
       <c r="C168" s="22"/>
@@ -11830,7 +11569,7 @@
       <c r="Y168" s="22"/>
       <c r="Z168" s="22"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1">
       <c r="A169" s="22"/>
       <c r="B169" s="22"/>
       <c r="C169" s="22"/>
@@ -11858,7 +11597,7 @@
       <c r="Y169" s="22"/>
       <c r="Z169" s="22"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1">
       <c r="A170" s="22"/>
       <c r="B170" s="22"/>
       <c r="C170" s="22"/>
@@ -11886,7 +11625,7 @@
       <c r="Y170" s="22"/>
       <c r="Z170" s="22"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="22"/>
       <c r="B171" s="22"/>
       <c r="C171" s="22"/>
@@ -11914,7 +11653,7 @@
       <c r="Y171" s="22"/>
       <c r="Z171" s="22"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1">
       <c r="A172" s="22"/>
       <c r="B172" s="22"/>
       <c r="C172" s="22"/>
@@ -11942,7 +11681,7 @@
       <c r="Y172" s="22"/>
       <c r="Z172" s="22"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="22"/>
       <c r="B173" s="22"/>
       <c r="C173" s="22"/>
@@ -11970,7 +11709,7 @@
       <c r="Y173" s="22"/>
       <c r="Z173" s="22"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1">
       <c r="A174" s="22"/>
       <c r="B174" s="22"/>
       <c r="C174" s="22"/>
@@ -11998,7 +11737,7 @@
       <c r="Y174" s="22"/>
       <c r="Z174" s="22"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="22"/>
       <c r="B175" s="22"/>
       <c r="C175" s="22"/>
@@ -12026,7 +11765,7 @@
       <c r="Y175" s="22"/>
       <c r="Z175" s="22"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1">
       <c r="A176" s="22"/>
       <c r="B176" s="22"/>
       <c r="C176" s="22"/>
@@ -12054,7 +11793,7 @@
       <c r="Y176" s="22"/>
       <c r="Z176" s="22"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="22"/>
       <c r="B177" s="22"/>
       <c r="C177" s="22"/>
@@ -12082,7 +11821,7 @@
       <c r="Y177" s="22"/>
       <c r="Z177" s="22"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1">
       <c r="A178" s="22"/>
       <c r="B178" s="22"/>
       <c r="C178" s="22"/>
@@ -12110,7 +11849,7 @@
       <c r="Y178" s="22"/>
       <c r="Z178" s="22"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1">
       <c r="A179" s="22"/>
       <c r="B179" s="22"/>
       <c r="C179" s="22"/>
@@ -12138,7 +11877,7 @@
       <c r="Y179" s="22"/>
       <c r="Z179" s="22"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="22"/>
       <c r="B180" s="22"/>
       <c r="C180" s="22"/>
@@ -12166,7 +11905,7 @@
       <c r="Y180" s="22"/>
       <c r="Z180" s="22"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1">
       <c r="A181" s="22"/>
       <c r="B181" s="22"/>
       <c r="C181" s="22"/>
@@ -12194,7 +11933,7 @@
       <c r="Y181" s="22"/>
       <c r="Z181" s="22"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1">
       <c r="A182" s="22"/>
       <c r="B182" s="22"/>
       <c r="C182" s="22"/>
@@ -12222,7 +11961,7 @@
       <c r="Y182" s="22"/>
       <c r="Z182" s="22"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1">
       <c r="A183" s="22"/>
       <c r="B183" s="22"/>
       <c r="C183" s="22"/>
@@ -12250,7 +11989,7 @@
       <c r="Y183" s="22"/>
       <c r="Z183" s="22"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1">
       <c r="A184" s="22"/>
       <c r="B184" s="22"/>
       <c r="C184" s="22"/>
@@ -12278,7 +12017,7 @@
       <c r="Y184" s="22"/>
       <c r="Z184" s="22"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1">
       <c r="A185" s="22"/>
       <c r="B185" s="22"/>
       <c r="C185" s="22"/>
@@ -12306,7 +12045,7 @@
       <c r="Y185" s="22"/>
       <c r="Z185" s="22"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1">
       <c r="A186" s="22"/>
       <c r="B186" s="22"/>
       <c r="C186" s="22"/>
@@ -12334,7 +12073,7 @@
       <c r="Y186" s="22"/>
       <c r="Z186" s="22"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1">
       <c r="A187" s="22"/>
       <c r="B187" s="22"/>
       <c r="C187" s="22"/>
@@ -12362,7 +12101,7 @@
       <c r="Y187" s="22"/>
       <c r="Z187" s="22"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1">
       <c r="A188" s="22"/>
       <c r="B188" s="22"/>
       <c r="C188" s="22"/>
@@ -12390,7 +12129,7 @@
       <c r="Y188" s="22"/>
       <c r="Z188" s="22"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1">
       <c r="A189" s="22"/>
       <c r="B189" s="22"/>
       <c r="C189" s="22"/>
@@ -12418,7 +12157,7 @@
       <c r="Y189" s="22"/>
       <c r="Z189" s="22"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1">
       <c r="A190" s="22"/>
       <c r="B190" s="22"/>
       <c r="C190" s="22"/>
@@ -12446,7 +12185,7 @@
       <c r="Y190" s="22"/>
       <c r="Z190" s="22"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1">
       <c r="A191" s="22"/>
       <c r="B191" s="22"/>
       <c r="C191" s="22"/>
@@ -12474,7 +12213,7 @@
       <c r="Y191" s="22"/>
       <c r="Z191" s="22"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="22"/>
       <c r="B192" s="22"/>
       <c r="C192" s="22"/>
@@ -12502,7 +12241,7 @@
       <c r="Y192" s="22"/>
       <c r="Z192" s="22"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="22"/>
       <c r="B193" s="22"/>
       <c r="C193" s="22"/>
@@ -12530,7 +12269,7 @@
       <c r="Y193" s="22"/>
       <c r="Z193" s="22"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="22"/>
       <c r="B194" s="22"/>
       <c r="C194" s="22"/>
@@ -12558,7 +12297,7 @@
       <c r="Y194" s="22"/>
       <c r="Z194" s="22"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1">
       <c r="A195" s="22"/>
       <c r="B195" s="22"/>
       <c r="C195" s="22"/>
@@ -12586,7 +12325,7 @@
       <c r="Y195" s="22"/>
       <c r="Z195" s="22"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="22"/>
       <c r="B196" s="22"/>
       <c r="C196" s="22"/>
@@ -12614,7 +12353,7 @@
       <c r="Y196" s="22"/>
       <c r="Z196" s="22"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1">
       <c r="A197" s="22"/>
       <c r="B197" s="22"/>
       <c r="C197" s="22"/>
@@ -12642,7 +12381,7 @@
       <c r="Y197" s="22"/>
       <c r="Z197" s="22"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1">
       <c r="A198" s="22"/>
       <c r="B198" s="22"/>
       <c r="C198" s="22"/>
@@ -12670,7 +12409,7 @@
       <c r="Y198" s="22"/>
       <c r="Z198" s="22"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1">
       <c r="A199" s="22"/>
       <c r="B199" s="22"/>
       <c r="C199" s="22"/>
@@ -12698,7 +12437,7 @@
       <c r="Y199" s="22"/>
       <c r="Z199" s="22"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1">
       <c r="A200" s="22"/>
       <c r="B200" s="22"/>
       <c r="C200" s="22"/>
@@ -12726,7 +12465,7 @@
       <c r="Y200" s="22"/>
       <c r="Z200" s="22"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1">
       <c r="A201" s="22"/>
       <c r="B201" s="22"/>
       <c r="C201" s="22"/>
@@ -12754,7 +12493,7 @@
       <c r="Y201" s="22"/>
       <c r="Z201" s="22"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1">
       <c r="A202" s="22"/>
       <c r="B202" s="22"/>
       <c r="C202" s="22"/>
@@ -12782,7 +12521,7 @@
       <c r="Y202" s="22"/>
       <c r="Z202" s="22"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1">
       <c r="A203" s="22"/>
       <c r="B203" s="22"/>
       <c r="C203" s="22"/>
@@ -12810,7 +12549,7 @@
       <c r="Y203" s="22"/>
       <c r="Z203" s="22"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="22"/>
       <c r="B204" s="22"/>
       <c r="C204" s="22"/>
@@ -12838,7 +12577,7 @@
       <c r="Y204" s="22"/>
       <c r="Z204" s="22"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1">
       <c r="A205" s="22"/>
       <c r="B205" s="22"/>
       <c r="C205" s="22"/>
@@ -12866,7 +12605,7 @@
       <c r="Y205" s="22"/>
       <c r="Z205" s="22"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1">
       <c r="A206" s="22"/>
       <c r="B206" s="22"/>
       <c r="C206" s="22"/>
@@ -12894,7 +12633,7 @@
       <c r="Y206" s="22"/>
       <c r="Z206" s="22"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1">
       <c r="A207" s="22"/>
       <c r="B207" s="22"/>
       <c r="C207" s="22"/>
@@ -12922,7 +12661,7 @@
       <c r="Y207" s="22"/>
       <c r="Z207" s="22"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1">
       <c r="A208" s="22"/>
       <c r="B208" s="22"/>
       <c r="C208" s="22"/>
@@ -12950,7 +12689,7 @@
       <c r="Y208" s="22"/>
       <c r="Z208" s="22"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="22"/>
       <c r="B209" s="22"/>
       <c r="C209" s="22"/>
@@ -12978,7 +12717,7 @@
       <c r="Y209" s="22"/>
       <c r="Z209" s="22"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1">
       <c r="A210" s="22"/>
       <c r="B210" s="22"/>
       <c r="C210" s="22"/>
@@ -13006,7 +12745,7 @@
       <c r="Y210" s="22"/>
       <c r="Z210" s="22"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1">
       <c r="A211" s="22"/>
       <c r="B211" s="22"/>
       <c r="C211" s="22"/>
@@ -13034,7 +12773,7 @@
       <c r="Y211" s="22"/>
       <c r="Z211" s="22"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1">
       <c r="A212" s="22"/>
       <c r="B212" s="22"/>
       <c r="C212" s="22"/>
@@ -13062,7 +12801,7 @@
       <c r="Y212" s="22"/>
       <c r="Z212" s="22"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1">
       <c r="A213" s="22"/>
       <c r="B213" s="22"/>
       <c r="C213" s="22"/>
@@ -13090,7 +12829,7 @@
       <c r="Y213" s="22"/>
       <c r="Z213" s="22"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1">
       <c r="A214" s="22"/>
       <c r="B214" s="22"/>
       <c r="C214" s="22"/>
@@ -13118,7 +12857,7 @@
       <c r="Y214" s="22"/>
       <c r="Z214" s="22"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="22"/>
       <c r="B215" s="22"/>
       <c r="C215" s="22"/>
@@ -13146,7 +12885,7 @@
       <c r="Y215" s="22"/>
       <c r="Z215" s="22"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1">
       <c r="A216" s="22"/>
       <c r="B216" s="22"/>
       <c r="C216" s="22"/>
@@ -13174,7 +12913,7 @@
       <c r="Y216" s="22"/>
       <c r="Z216" s="22"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1">
       <c r="A217" s="22"/>
       <c r="B217" s="22"/>
       <c r="C217" s="22"/>
@@ -13202,7 +12941,7 @@
       <c r="Y217" s="22"/>
       <c r="Z217" s="22"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1">
       <c r="A218" s="22"/>
       <c r="B218" s="22"/>
       <c r="C218" s="22"/>
@@ -13230,7 +12969,7 @@
       <c r="Y218" s="22"/>
       <c r="Z218" s="22"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1">
       <c r="A219" s="22"/>
       <c r="B219" s="22"/>
       <c r="C219" s="22"/>
@@ -13258,7 +12997,7 @@
       <c r="Y219" s="22"/>
       <c r="Z219" s="22"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1">
       <c r="A220" s="22"/>
       <c r="B220" s="22"/>
       <c r="C220" s="22"/>
@@ -13286,10 +13025,10 @@
       <c r="Y220" s="22"/>
       <c r="Z220" s="22"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -14067,40 +13806,39 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.43"/>
-    <col customWidth="1" min="2" max="6" width="14.43"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -14135,15 +13873,15 @@
       <c r="V1" s="21"/>
       <c r="W1" s="21"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
@@ -14166,15 +13904,15 @@
       <c r="V2" s="21"/>
       <c r="W2" s="21"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1">
       <c r="A3" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>153</v>
-      </c>
       <c r="C3" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -14197,7 +13935,7 @@
       <c r="V3" s="21"/>
       <c r="W3" s="21"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -14222,15 +13960,15 @@
       <c r="V4" s="21"/>
       <c r="W4" s="21"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1">
       <c r="A5" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>155</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>157</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -14253,15 +13991,15 @@
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -14284,15 +14022,15 @@
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -14315,7 +14053,7 @@
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -14340,7 +14078,7 @@
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1">
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
@@ -14348,7 +14086,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1">
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -14356,7 +14094,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1">
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -14364,7 +14102,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1">
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
@@ -14372,7 +14110,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1">
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
@@ -14380,7 +14118,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1">
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -14388,7 +14126,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1">
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -14396,7 +14134,7 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1">
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -14404,7 +14142,7 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="4:9" ht="15.75" customHeight="1">
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -14412,7 +14150,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="4:9" ht="15.75" customHeight="1">
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -14420,7 +14158,7 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="4:9" ht="15.75" customHeight="1">
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -14428,7 +14166,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="4:9" ht="15.75" customHeight="1">
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -14436,7 +14174,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="4:9" ht="15.75" customHeight="1">
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -14444,7 +14182,7 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="4:9" ht="15.75" customHeight="1">
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -14452,7 +14190,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="4:9" ht="15.75" customHeight="1">
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -14460,7 +14198,7 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="4:9" ht="15.75" customHeight="1">
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
@@ -14468,7 +14206,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="4:9" ht="15.75" customHeight="1">
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -14476,7 +14214,7 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="4:9" ht="15.75" customHeight="1">
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
@@ -14484,7 +14222,7 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="4:9" ht="15.75" customHeight="1">
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
@@ -14492,7 +14230,7 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="4:9" ht="15.75" customHeight="1">
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
@@ -14500,7 +14238,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="4:9" ht="15.75" customHeight="1">
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -14508,7 +14246,7 @@
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="4:9" ht="15.75" customHeight="1">
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
@@ -14516,7 +14254,7 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="4:9" ht="15.75" customHeight="1">
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
@@ -14524,7 +14262,7 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="4:9" ht="15.75" customHeight="1">
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
@@ -14532,7 +14270,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="4:9" ht="15.75" customHeight="1">
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
@@ -14540,7 +14278,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="4:9" ht="15.75" customHeight="1">
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
@@ -14548,7 +14286,7 @@
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="4:9" ht="15.75" customHeight="1">
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
@@ -14556,7 +14294,7 @@
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="4:9" ht="15.75" customHeight="1">
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
@@ -14564,7 +14302,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="4:9" ht="15.75" customHeight="1">
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
@@ -14572,7 +14310,7 @@
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="4:9" ht="15.75" customHeight="1">
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
@@ -14580,7 +14318,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="4:9" ht="15.75" customHeight="1">
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -14588,7 +14326,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="4:9" ht="15.75" customHeight="1">
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
@@ -14596,7 +14334,7 @@
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="4:9" ht="15.75" customHeight="1">
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
@@ -14604,7 +14342,7 @@
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="4:9" ht="15.75" customHeight="1">
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
@@ -14612,7 +14350,7 @@
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="4:9" ht="15.75" customHeight="1">
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
@@ -14620,7 +14358,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="4:9" ht="15.75" customHeight="1">
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
@@ -14628,7 +14366,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="4:9" ht="15.75" customHeight="1">
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
@@ -14636,7 +14374,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="4:9" ht="15.75" customHeight="1">
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
@@ -14644,7 +14382,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="4:9" ht="15.75" customHeight="1">
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
@@ -14652,7 +14390,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="4:9" ht="15.75" customHeight="1">
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
@@ -14660,7 +14398,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="4:9" ht="15.75" customHeight="1">
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
@@ -14668,7 +14406,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="4:9" ht="15.75" customHeight="1">
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
@@ -14676,7 +14414,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="4:9" ht="15.75" customHeight="1">
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
@@ -14684,7 +14422,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="4:9" ht="15.75" customHeight="1">
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
       <c r="F52" s="21"/>
@@ -14692,7 +14430,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="4:9" ht="15.75" customHeight="1">
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
@@ -14700,7 +14438,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="4:9" ht="15.75" customHeight="1">
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
       <c r="F54" s="21"/>
@@ -14708,7 +14446,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="4:9" ht="15.75" customHeight="1">
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
@@ -14716,7 +14454,7 @@
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="4:9" ht="15.75" customHeight="1">
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
@@ -14724,7 +14462,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="4:9" ht="15.75" customHeight="1">
       <c r="D57" s="21"/>
       <c r="E57" s="21"/>
       <c r="F57" s="21"/>
@@ -14732,7 +14470,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="4:9" ht="15.75" customHeight="1">
       <c r="D58" s="21"/>
       <c r="E58" s="21"/>
       <c r="F58" s="21"/>
@@ -14740,7 +14478,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="4:9" ht="15.75" customHeight="1">
       <c r="D59" s="21"/>
       <c r="E59" s="21"/>
       <c r="F59" s="21"/>
@@ -14748,7 +14486,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="4:9" ht="15.75" customHeight="1">
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
@@ -14756,7 +14494,7 @@
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="4:9" ht="15.75" customHeight="1">
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
@@ -14764,7 +14502,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="4:9" ht="15.75" customHeight="1">
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
       <c r="F62" s="21"/>
@@ -14772,7 +14510,7 @@
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="4:9" ht="15.75" customHeight="1">
       <c r="D63" s="21"/>
       <c r="E63" s="21"/>
       <c r="F63" s="21"/>
@@ -14780,7 +14518,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="4:9" ht="15.75" customHeight="1">
       <c r="D64" s="21"/>
       <c r="E64" s="21"/>
       <c r="F64" s="21"/>
@@ -14788,7 +14526,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="4:9" ht="15.75" customHeight="1">
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
@@ -14796,7 +14534,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="4:9" ht="15.75" customHeight="1">
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
       <c r="F66" s="21"/>
@@ -14804,7 +14542,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="4:9" ht="15.75" customHeight="1">
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
       <c r="F67" s="21"/>
@@ -14812,7 +14550,7 @@
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="4:9" ht="15.75" customHeight="1">
       <c r="D68" s="21"/>
       <c r="E68" s="21"/>
       <c r="F68" s="21"/>
@@ -14820,7 +14558,7 @@
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="4:9" ht="15.75" customHeight="1">
       <c r="D69" s="21"/>
       <c r="E69" s="21"/>
       <c r="F69" s="21"/>
@@ -14828,7 +14566,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="4:9" ht="15.75" customHeight="1">
       <c r="D70" s="21"/>
       <c r="E70" s="21"/>
       <c r="F70" s="21"/>
@@ -14836,7 +14574,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="4:9" ht="15.75" customHeight="1">
       <c r="D71" s="21"/>
       <c r="E71" s="21"/>
       <c r="F71" s="21"/>
@@ -14844,7 +14582,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="4:9" ht="15.75" customHeight="1">
       <c r="D72" s="21"/>
       <c r="E72" s="21"/>
       <c r="F72" s="21"/>
@@ -14852,7 +14590,7 @@
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="4:9" ht="15.75" customHeight="1">
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
       <c r="F73" s="21"/>
@@ -14860,7 +14598,7 @@
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="4:9" ht="15.75" customHeight="1">
       <c r="D74" s="21"/>
       <c r="E74" s="21"/>
       <c r="F74" s="21"/>
@@ -14868,7 +14606,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="4:9" ht="15.75" customHeight="1">
       <c r="D75" s="21"/>
       <c r="E75" s="21"/>
       <c r="F75" s="21"/>
@@ -14876,7 +14614,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="4:9" ht="15.75" customHeight="1">
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
       <c r="F76" s="21"/>
@@ -14884,7 +14622,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="4:9" ht="15.75" customHeight="1">
       <c r="D77" s="21"/>
       <c r="E77" s="21"/>
       <c r="F77" s="21"/>
@@ -14892,7 +14630,7 @@
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="4:9" ht="15.75" customHeight="1">
       <c r="D78" s="21"/>
       <c r="E78" s="21"/>
       <c r="F78" s="21"/>
@@ -14900,7 +14638,7 @@
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="4:9" ht="15.75" customHeight="1">
       <c r="D79" s="21"/>
       <c r="E79" s="21"/>
       <c r="F79" s="21"/>
@@ -14908,7 +14646,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="4:9" ht="15.75" customHeight="1">
       <c r="D80" s="21"/>
       <c r="E80" s="21"/>
       <c r="F80" s="21"/>
@@ -14916,7 +14654,7 @@
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="4:9" ht="15.75" customHeight="1">
       <c r="D81" s="21"/>
       <c r="E81" s="21"/>
       <c r="F81" s="21"/>
@@ -14924,7 +14662,7 @@
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="4:9" ht="15.75" customHeight="1">
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
       <c r="F82" s="21"/>
@@ -14932,7 +14670,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="4:9" ht="15.75" customHeight="1">
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
       <c r="F83" s="21"/>
@@ -14940,7 +14678,7 @@
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="4:9" ht="15.75" customHeight="1">
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
       <c r="F84" s="21"/>
@@ -14948,7 +14686,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="4:9" ht="15.75" customHeight="1">
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
       <c r="F85" s="21"/>
@@ -14956,7 +14694,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="4:9" ht="15.75" customHeight="1">
       <c r="D86" s="21"/>
       <c r="E86" s="21"/>
       <c r="F86" s="21"/>
@@ -14964,7 +14702,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="4:9" ht="15.75" customHeight="1">
       <c r="D87" s="21"/>
       <c r="E87" s="21"/>
       <c r="F87" s="21"/>
@@ -14972,7 +14710,7 @@
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="4:9" ht="15.75" customHeight="1">
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
       <c r="F88" s="21"/>
@@ -14980,7 +14718,7 @@
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="4:9" ht="15.75" customHeight="1">
       <c r="D89" s="21"/>
       <c r="E89" s="21"/>
       <c r="F89" s="21"/>
@@ -14988,7 +14726,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="4:9" ht="15.75" customHeight="1">
       <c r="D90" s="21"/>
       <c r="E90" s="21"/>
       <c r="F90" s="21"/>
@@ -14996,7 +14734,7 @@
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="4:9" ht="15.75" customHeight="1">
       <c r="D91" s="21"/>
       <c r="E91" s="21"/>
       <c r="F91" s="21"/>
@@ -15004,7 +14742,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="4:9" ht="15.75" customHeight="1">
       <c r="D92" s="21"/>
       <c r="E92" s="21"/>
       <c r="F92" s="21"/>
@@ -15012,7 +14750,7 @@
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="4:9" ht="15.75" customHeight="1">
       <c r="D93" s="21"/>
       <c r="E93" s="21"/>
       <c r="F93" s="21"/>
@@ -15020,7 +14758,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="4:9" ht="15.75" customHeight="1">
       <c r="D94" s="21"/>
       <c r="E94" s="21"/>
       <c r="F94" s="21"/>
@@ -15028,7 +14766,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="4:9" ht="15.75" customHeight="1">
       <c r="D95" s="21"/>
       <c r="E95" s="21"/>
       <c r="F95" s="21"/>
@@ -15036,7 +14774,7 @@
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="4:9" ht="15.75" customHeight="1">
       <c r="D96" s="21"/>
       <c r="E96" s="21"/>
       <c r="F96" s="21"/>
@@ -15044,7 +14782,7 @@
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="4:9" ht="15.75" customHeight="1">
       <c r="D97" s="21"/>
       <c r="E97" s="21"/>
       <c r="F97" s="21"/>
@@ -15052,7 +14790,7 @@
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="4:9" ht="15.75" customHeight="1">
       <c r="D98" s="21"/>
       <c r="E98" s="21"/>
       <c r="F98" s="21"/>
@@ -15060,7 +14798,7 @@
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="4:9" ht="15.75" customHeight="1">
       <c r="D99" s="21"/>
       <c r="E99" s="21"/>
       <c r="F99" s="21"/>
@@ -15068,7 +14806,7 @@
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="4:9" ht="15.75" customHeight="1">
       <c r="D100" s="21"/>
       <c r="E100" s="21"/>
       <c r="F100" s="21"/>
@@ -15076,7 +14814,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="4:9" ht="15.75" customHeight="1">
       <c r="D101" s="21"/>
       <c r="E101" s="21"/>
       <c r="F101" s="21"/>
@@ -15084,7 +14822,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="4:9" ht="15.75" customHeight="1">
       <c r="D102" s="21"/>
       <c r="E102" s="21"/>
       <c r="F102" s="21"/>
@@ -15092,7 +14830,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="21"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="4:9" ht="15.75" customHeight="1">
       <c r="D103" s="21"/>
       <c r="E103" s="21"/>
       <c r="F103" s="21"/>
@@ -15100,7 +14838,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="4:9" ht="15.75" customHeight="1">
       <c r="D104" s="21"/>
       <c r="E104" s="21"/>
       <c r="F104" s="21"/>
@@ -15108,7 +14846,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="4:9" ht="15.75" customHeight="1">
       <c r="D105" s="21"/>
       <c r="E105" s="21"/>
       <c r="F105" s="21"/>
@@ -15116,7 +14854,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="4:9" ht="15.75" customHeight="1">
       <c r="D106" s="21"/>
       <c r="E106" s="21"/>
       <c r="F106" s="21"/>
@@ -15124,7 +14862,7 @@
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="4:9" ht="15.75" customHeight="1">
       <c r="D107" s="21"/>
       <c r="E107" s="21"/>
       <c r="F107" s="21"/>
@@ -15132,7 +14870,7 @@
       <c r="H107" s="21"/>
       <c r="I107" s="21"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="4:9" ht="15.75" customHeight="1">
       <c r="D108" s="21"/>
       <c r="E108" s="21"/>
       <c r="F108" s="21"/>
@@ -15140,7 +14878,7 @@
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="4:9" ht="15.75" customHeight="1">
       <c r="D109" s="21"/>
       <c r="E109" s="21"/>
       <c r="F109" s="21"/>
@@ -15148,7 +14886,7 @@
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="4:9" ht="15.75" customHeight="1">
       <c r="D110" s="21"/>
       <c r="E110" s="21"/>
       <c r="F110" s="21"/>
@@ -15156,7 +14894,7 @@
       <c r="H110" s="21"/>
       <c r="I110" s="21"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="4:9" ht="15.75" customHeight="1">
       <c r="D111" s="21"/>
       <c r="E111" s="21"/>
       <c r="F111" s="21"/>
@@ -15164,7 +14902,7 @@
       <c r="H111" s="21"/>
       <c r="I111" s="21"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="4:9" ht="15.75" customHeight="1">
       <c r="D112" s="21"/>
       <c r="E112" s="21"/>
       <c r="F112" s="21"/>
@@ -15172,7 +14910,7 @@
       <c r="H112" s="21"/>
       <c r="I112" s="21"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="4:9" ht="15.75" customHeight="1">
       <c r="D113" s="21"/>
       <c r="E113" s="21"/>
       <c r="F113" s="21"/>
@@ -15180,7 +14918,7 @@
       <c r="H113" s="21"/>
       <c r="I113" s="21"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="4:9" ht="15.75" customHeight="1">
       <c r="D114" s="21"/>
       <c r="E114" s="21"/>
       <c r="F114" s="21"/>
@@ -15188,7 +14926,7 @@
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="4:9" ht="15.75" customHeight="1">
       <c r="D115" s="21"/>
       <c r="E115" s="21"/>
       <c r="F115" s="21"/>
@@ -15196,7 +14934,7 @@
       <c r="H115" s="21"/>
       <c r="I115" s="21"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="4:9" ht="15.75" customHeight="1">
       <c r="D116" s="21"/>
       <c r="E116" s="21"/>
       <c r="F116" s="21"/>
@@ -15204,7 +14942,7 @@
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="4:9" ht="15.75" customHeight="1">
       <c r="D117" s="21"/>
       <c r="E117" s="21"/>
       <c r="F117" s="21"/>
@@ -15212,7 +14950,7 @@
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="4:9" ht="15.75" customHeight="1">
       <c r="D118" s="21"/>
       <c r="E118" s="21"/>
       <c r="F118" s="21"/>
@@ -15220,7 +14958,7 @@
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="4:9" ht="15.75" customHeight="1">
       <c r="D119" s="21"/>
       <c r="E119" s="21"/>
       <c r="F119" s="21"/>
@@ -15228,7 +14966,7 @@
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="4:9" ht="15.75" customHeight="1">
       <c r="D120" s="21"/>
       <c r="E120" s="21"/>
       <c r="F120" s="21"/>
@@ -15236,7 +14974,7 @@
       <c r="H120" s="21"/>
       <c r="I120" s="21"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="4:9" ht="15.75" customHeight="1">
       <c r="D121" s="21"/>
       <c r="E121" s="21"/>
       <c r="F121" s="21"/>
@@ -15244,7 +14982,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="4:9" ht="15.75" customHeight="1">
       <c r="D122" s="21"/>
       <c r="E122" s="21"/>
       <c r="F122" s="21"/>
@@ -15252,7 +14990,7 @@
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="4:9" ht="15.75" customHeight="1">
       <c r="D123" s="21"/>
       <c r="E123" s="21"/>
       <c r="F123" s="21"/>
@@ -15260,7 +14998,7 @@
       <c r="H123" s="21"/>
       <c r="I123" s="21"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="4:9" ht="15.75" customHeight="1">
       <c r="D124" s="21"/>
       <c r="E124" s="21"/>
       <c r="F124" s="21"/>
@@ -15268,7 +15006,7 @@
       <c r="H124" s="21"/>
       <c r="I124" s="21"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="4:9" ht="15.75" customHeight="1">
       <c r="D125" s="21"/>
       <c r="E125" s="21"/>
       <c r="F125" s="21"/>
@@ -15276,7 +15014,7 @@
       <c r="H125" s="21"/>
       <c r="I125" s="21"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="4:9" ht="15.75" customHeight="1">
       <c r="D126" s="21"/>
       <c r="E126" s="21"/>
       <c r="F126" s="21"/>
@@ -15284,7 +15022,7 @@
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="4:9" ht="15.75" customHeight="1">
       <c r="D127" s="21"/>
       <c r="E127" s="21"/>
       <c r="F127" s="21"/>
@@ -15292,7 +15030,7 @@
       <c r="H127" s="21"/>
       <c r="I127" s="21"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="4:9" ht="15.75" customHeight="1">
       <c r="D128" s="21"/>
       <c r="E128" s="21"/>
       <c r="F128" s="21"/>
@@ -15300,7 +15038,7 @@
       <c r="H128" s="21"/>
       <c r="I128" s="21"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="4:9" ht="15.75" customHeight="1">
       <c r="D129" s="21"/>
       <c r="E129" s="21"/>
       <c r="F129" s="21"/>
@@ -15308,7 +15046,7 @@
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="4:9" ht="15.75" customHeight="1">
       <c r="D130" s="21"/>
       <c r="E130" s="21"/>
       <c r="F130" s="21"/>
@@ -15316,7 +15054,7 @@
       <c r="H130" s="21"/>
       <c r="I130" s="21"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="4:9" ht="15.75" customHeight="1">
       <c r="D131" s="21"/>
       <c r="E131" s="21"/>
       <c r="F131" s="21"/>
@@ -15324,7 +15062,7 @@
       <c r="H131" s="21"/>
       <c r="I131" s="21"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="4:9" ht="15.75" customHeight="1">
       <c r="D132" s="21"/>
       <c r="E132" s="21"/>
       <c r="F132" s="21"/>
@@ -15332,7 +15070,7 @@
       <c r="H132" s="21"/>
       <c r="I132" s="21"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="4:9" ht="15.75" customHeight="1">
       <c r="D133" s="21"/>
       <c r="E133" s="21"/>
       <c r="F133" s="21"/>
@@ -15340,7 +15078,7 @@
       <c r="H133" s="21"/>
       <c r="I133" s="21"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="4:9" ht="15.75" customHeight="1">
       <c r="D134" s="21"/>
       <c r="E134" s="21"/>
       <c r="F134" s="21"/>
@@ -15348,7 +15086,7 @@
       <c r="H134" s="21"/>
       <c r="I134" s="21"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="4:9" ht="15.75" customHeight="1">
       <c r="D135" s="21"/>
       <c r="E135" s="21"/>
       <c r="F135" s="21"/>
@@ -15356,7 +15094,7 @@
       <c r="H135" s="21"/>
       <c r="I135" s="21"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="4:9" ht="15.75" customHeight="1">
       <c r="D136" s="21"/>
       <c r="E136" s="21"/>
       <c r="F136" s="21"/>
@@ -15364,7 +15102,7 @@
       <c r="H136" s="21"/>
       <c r="I136" s="21"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="4:9" ht="15.75" customHeight="1">
       <c r="D137" s="21"/>
       <c r="E137" s="21"/>
       <c r="F137" s="21"/>
@@ -15372,7 +15110,7 @@
       <c r="H137" s="21"/>
       <c r="I137" s="21"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="4:9" ht="15.75" customHeight="1">
       <c r="D138" s="21"/>
       <c r="E138" s="21"/>
       <c r="F138" s="21"/>
@@ -15380,7 +15118,7 @@
       <c r="H138" s="21"/>
       <c r="I138" s="21"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="4:9" ht="15.75" customHeight="1">
       <c r="D139" s="21"/>
       <c r="E139" s="21"/>
       <c r="F139" s="21"/>
@@ -15388,7 +15126,7 @@
       <c r="H139" s="21"/>
       <c r="I139" s="21"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="4:9" ht="15.75" customHeight="1">
       <c r="D140" s="21"/>
       <c r="E140" s="21"/>
       <c r="F140" s="21"/>
@@ -15396,7 +15134,7 @@
       <c r="H140" s="21"/>
       <c r="I140" s="21"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="4:9" ht="15.75" customHeight="1">
       <c r="D141" s="21"/>
       <c r="E141" s="21"/>
       <c r="F141" s="21"/>
@@ -15404,7 +15142,7 @@
       <c r="H141" s="21"/>
       <c r="I141" s="21"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="4:9" ht="15.75" customHeight="1">
       <c r="D142" s="21"/>
       <c r="E142" s="21"/>
       <c r="F142" s="21"/>
@@ -15412,7 +15150,7 @@
       <c r="H142" s="21"/>
       <c r="I142" s="21"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="4:9" ht="15.75" customHeight="1">
       <c r="D143" s="21"/>
       <c r="E143" s="21"/>
       <c r="F143" s="21"/>
@@ -15420,7 +15158,7 @@
       <c r="H143" s="21"/>
       <c r="I143" s="21"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="4:9" ht="15.75" customHeight="1">
       <c r="D144" s="21"/>
       <c r="E144" s="21"/>
       <c r="F144" s="21"/>
@@ -15428,7 +15166,7 @@
       <c r="H144" s="21"/>
       <c r="I144" s="21"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="4:9" ht="15.75" customHeight="1">
       <c r="D145" s="21"/>
       <c r="E145" s="21"/>
       <c r="F145" s="21"/>
@@ -15436,7 +15174,7 @@
       <c r="H145" s="21"/>
       <c r="I145" s="21"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="4:9" ht="15.75" customHeight="1">
       <c r="D146" s="21"/>
       <c r="E146" s="21"/>
       <c r="F146" s="21"/>
@@ -15444,7 +15182,7 @@
       <c r="H146" s="21"/>
       <c r="I146" s="21"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="4:9" ht="15.75" customHeight="1">
       <c r="D147" s="21"/>
       <c r="E147" s="21"/>
       <c r="F147" s="21"/>
@@ -15452,7 +15190,7 @@
       <c r="H147" s="21"/>
       <c r="I147" s="21"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="4:9" ht="15.75" customHeight="1">
       <c r="D148" s="21"/>
       <c r="E148" s="21"/>
       <c r="F148" s="21"/>
@@ -15460,7 +15198,7 @@
       <c r="H148" s="21"/>
       <c r="I148" s="21"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="4:9" ht="15.75" customHeight="1">
       <c r="D149" s="21"/>
       <c r="E149" s="21"/>
       <c r="F149" s="21"/>
@@ -15468,7 +15206,7 @@
       <c r="H149" s="21"/>
       <c r="I149" s="21"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="4:9" ht="15.75" customHeight="1">
       <c r="D150" s="21"/>
       <c r="E150" s="21"/>
       <c r="F150" s="21"/>
@@ -15476,7 +15214,7 @@
       <c r="H150" s="21"/>
       <c r="I150" s="21"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="4:9" ht="15.75" customHeight="1">
       <c r="D151" s="21"/>
       <c r="E151" s="21"/>
       <c r="F151" s="21"/>
@@ -15484,7 +15222,7 @@
       <c r="H151" s="21"/>
       <c r="I151" s="21"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="4:9" ht="15.75" customHeight="1">
       <c r="D152" s="21"/>
       <c r="E152" s="21"/>
       <c r="F152" s="21"/>
@@ -15492,7 +15230,7 @@
       <c r="H152" s="21"/>
       <c r="I152" s="21"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="4:9" ht="15.75" customHeight="1">
       <c r="D153" s="21"/>
       <c r="E153" s="21"/>
       <c r="F153" s="21"/>
@@ -15500,7 +15238,7 @@
       <c r="H153" s="21"/>
       <c r="I153" s="21"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="4:9" ht="15.75" customHeight="1">
       <c r="D154" s="21"/>
       <c r="E154" s="21"/>
       <c r="F154" s="21"/>
@@ -15508,7 +15246,7 @@
       <c r="H154" s="21"/>
       <c r="I154" s="21"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="4:9" ht="15.75" customHeight="1">
       <c r="D155" s="21"/>
       <c r="E155" s="21"/>
       <c r="F155" s="21"/>
@@ -15516,7 +15254,7 @@
       <c r="H155" s="21"/>
       <c r="I155" s="21"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="4:9" ht="15.75" customHeight="1">
       <c r="D156" s="21"/>
       <c r="E156" s="21"/>
       <c r="F156" s="21"/>
@@ -15524,7 +15262,7 @@
       <c r="H156" s="21"/>
       <c r="I156" s="21"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="4:9" ht="15.75" customHeight="1">
       <c r="D157" s="21"/>
       <c r="E157" s="21"/>
       <c r="F157" s="21"/>
@@ -15532,7 +15270,7 @@
       <c r="H157" s="21"/>
       <c r="I157" s="21"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="4:9" ht="15.75" customHeight="1">
       <c r="D158" s="21"/>
       <c r="E158" s="21"/>
       <c r="F158" s="21"/>
@@ -15540,7 +15278,7 @@
       <c r="H158" s="21"/>
       <c r="I158" s="21"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="4:9" ht="15.75" customHeight="1">
       <c r="D159" s="21"/>
       <c r="E159" s="21"/>
       <c r="F159" s="21"/>
@@ -15548,7 +15286,7 @@
       <c r="H159" s="21"/>
       <c r="I159" s="21"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="4:9" ht="15.75" customHeight="1">
       <c r="D160" s="21"/>
       <c r="E160" s="21"/>
       <c r="F160" s="21"/>
@@ -15556,7 +15294,7 @@
       <c r="H160" s="21"/>
       <c r="I160" s="21"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="4:9" ht="15.75" customHeight="1">
       <c r="D161" s="21"/>
       <c r="E161" s="21"/>
       <c r="F161" s="21"/>
@@ -15564,7 +15302,7 @@
       <c r="H161" s="21"/>
       <c r="I161" s="21"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="4:9" ht="15.75" customHeight="1">
       <c r="D162" s="21"/>
       <c r="E162" s="21"/>
       <c r="F162" s="21"/>
@@ -15572,7 +15310,7 @@
       <c r="H162" s="21"/>
       <c r="I162" s="21"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="4:9" ht="15.75" customHeight="1">
       <c r="D163" s="21"/>
       <c r="E163" s="21"/>
       <c r="F163" s="21"/>
@@ -15580,7 +15318,7 @@
       <c r="H163" s="21"/>
       <c r="I163" s="21"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="4:9" ht="15.75" customHeight="1">
       <c r="D164" s="21"/>
       <c r="E164" s="21"/>
       <c r="F164" s="21"/>
@@ -15588,7 +15326,7 @@
       <c r="H164" s="21"/>
       <c r="I164" s="21"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="4:9" ht="15.75" customHeight="1">
       <c r="D165" s="21"/>
       <c r="E165" s="21"/>
       <c r="F165" s="21"/>
@@ -15596,7 +15334,7 @@
       <c r="H165" s="21"/>
       <c r="I165" s="21"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="4:9" ht="15.75" customHeight="1">
       <c r="D166" s="21"/>
       <c r="E166" s="21"/>
       <c r="F166" s="21"/>
@@ -15604,7 +15342,7 @@
       <c r="H166" s="21"/>
       <c r="I166" s="21"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="4:9" ht="15.75" customHeight="1">
       <c r="D167" s="21"/>
       <c r="E167" s="21"/>
       <c r="F167" s="21"/>
@@ -15612,7 +15350,7 @@
       <c r="H167" s="21"/>
       <c r="I167" s="21"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="4:9" ht="15.75" customHeight="1">
       <c r="D168" s="21"/>
       <c r="E168" s="21"/>
       <c r="F168" s="21"/>
@@ -15620,7 +15358,7 @@
       <c r="H168" s="21"/>
       <c r="I168" s="21"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="4:9" ht="15.75" customHeight="1">
       <c r="D169" s="21"/>
       <c r="E169" s="21"/>
       <c r="F169" s="21"/>
@@ -15628,7 +15366,7 @@
       <c r="H169" s="21"/>
       <c r="I169" s="21"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="4:9" ht="15.75" customHeight="1">
       <c r="D170" s="21"/>
       <c r="E170" s="21"/>
       <c r="F170" s="21"/>
@@ -15636,7 +15374,7 @@
       <c r="H170" s="21"/>
       <c r="I170" s="21"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="4:9" ht="15.75" customHeight="1">
       <c r="D171" s="21"/>
       <c r="E171" s="21"/>
       <c r="F171" s="21"/>
@@ -15644,7 +15382,7 @@
       <c r="H171" s="21"/>
       <c r="I171" s="21"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="4:9" ht="15.75" customHeight="1">
       <c r="D172" s="21"/>
       <c r="E172" s="21"/>
       <c r="F172" s="21"/>
@@ -15652,7 +15390,7 @@
       <c r="H172" s="21"/>
       <c r="I172" s="21"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="4:9" ht="15.75" customHeight="1">
       <c r="D173" s="21"/>
       <c r="E173" s="21"/>
       <c r="F173" s="21"/>
@@ -15660,7 +15398,7 @@
       <c r="H173" s="21"/>
       <c r="I173" s="21"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="4:9" ht="15.75" customHeight="1">
       <c r="D174" s="21"/>
       <c r="E174" s="21"/>
       <c r="F174" s="21"/>
@@ -15668,7 +15406,7 @@
       <c r="H174" s="21"/>
       <c r="I174" s="21"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="4:9" ht="15.75" customHeight="1">
       <c r="D175" s="21"/>
       <c r="E175" s="21"/>
       <c r="F175" s="21"/>
@@ -15676,7 +15414,7 @@
       <c r="H175" s="21"/>
       <c r="I175" s="21"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="4:9" ht="15.75" customHeight="1">
       <c r="D176" s="21"/>
       <c r="E176" s="21"/>
       <c r="F176" s="21"/>
@@ -15684,7 +15422,7 @@
       <c r="H176" s="21"/>
       <c r="I176" s="21"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="4:9" ht="15.75" customHeight="1">
       <c r="D177" s="21"/>
       <c r="E177" s="21"/>
       <c r="F177" s="21"/>
@@ -15692,7 +15430,7 @@
       <c r="H177" s="21"/>
       <c r="I177" s="21"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="4:9" ht="15.75" customHeight="1">
       <c r="D178" s="21"/>
       <c r="E178" s="21"/>
       <c r="F178" s="21"/>
@@ -15700,7 +15438,7 @@
       <c r="H178" s="21"/>
       <c r="I178" s="21"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="4:9" ht="15.75" customHeight="1">
       <c r="D179" s="21"/>
       <c r="E179" s="21"/>
       <c r="F179" s="21"/>
@@ -15708,7 +15446,7 @@
       <c r="H179" s="21"/>
       <c r="I179" s="21"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="4:9" ht="15.75" customHeight="1">
       <c r="D180" s="21"/>
       <c r="E180" s="21"/>
       <c r="F180" s="21"/>
@@ -15716,7 +15454,7 @@
       <c r="H180" s="21"/>
       <c r="I180" s="21"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="4:9" ht="15.75" customHeight="1">
       <c r="D181" s="21"/>
       <c r="E181" s="21"/>
       <c r="F181" s="21"/>
@@ -15724,7 +15462,7 @@
       <c r="H181" s="21"/>
       <c r="I181" s="21"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="4:9" ht="15.75" customHeight="1">
       <c r="D182" s="21"/>
       <c r="E182" s="21"/>
       <c r="F182" s="21"/>
@@ -15732,7 +15470,7 @@
       <c r="H182" s="21"/>
       <c r="I182" s="21"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="4:9" ht="15.75" customHeight="1">
       <c r="D183" s="21"/>
       <c r="E183" s="21"/>
       <c r="F183" s="21"/>
@@ -15740,7 +15478,7 @@
       <c r="H183" s="21"/>
       <c r="I183" s="21"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="4:9" ht="15.75" customHeight="1">
       <c r="D184" s="21"/>
       <c r="E184" s="21"/>
       <c r="F184" s="21"/>
@@ -15748,7 +15486,7 @@
       <c r="H184" s="21"/>
       <c r="I184" s="21"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="4:9" ht="15.75" customHeight="1">
       <c r="D185" s="21"/>
       <c r="E185" s="21"/>
       <c r="F185" s="21"/>
@@ -15756,7 +15494,7 @@
       <c r="H185" s="21"/>
       <c r="I185" s="21"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="4:9" ht="15.75" customHeight="1">
       <c r="D186" s="21"/>
       <c r="E186" s="21"/>
       <c r="F186" s="21"/>
@@ -15764,7 +15502,7 @@
       <c r="H186" s="21"/>
       <c r="I186" s="21"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="4:9" ht="15.75" customHeight="1">
       <c r="D187" s="21"/>
       <c r="E187" s="21"/>
       <c r="F187" s="21"/>
@@ -15772,7 +15510,7 @@
       <c r="H187" s="21"/>
       <c r="I187" s="21"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="4:9" ht="15.75" customHeight="1">
       <c r="D188" s="21"/>
       <c r="E188" s="21"/>
       <c r="F188" s="21"/>
@@ -15780,7 +15518,7 @@
       <c r="H188" s="21"/>
       <c r="I188" s="21"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="4:9" ht="15.75" customHeight="1">
       <c r="D189" s="21"/>
       <c r="E189" s="21"/>
       <c r="F189" s="21"/>
@@ -15788,7 +15526,7 @@
       <c r="H189" s="21"/>
       <c r="I189" s="21"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="4:9" ht="15.75" customHeight="1">
       <c r="D190" s="21"/>
       <c r="E190" s="21"/>
       <c r="F190" s="21"/>
@@ -15796,7 +15534,7 @@
       <c r="H190" s="21"/>
       <c r="I190" s="21"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="4:9" ht="15.75" customHeight="1">
       <c r="D191" s="21"/>
       <c r="E191" s="21"/>
       <c r="F191" s="21"/>
@@ -15804,7 +15542,7 @@
       <c r="H191" s="21"/>
       <c r="I191" s="21"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="4:9" ht="15.75" customHeight="1">
       <c r="D192" s="21"/>
       <c r="E192" s="21"/>
       <c r="F192" s="21"/>
@@ -15812,7 +15550,7 @@
       <c r="H192" s="21"/>
       <c r="I192" s="21"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="4:9" ht="15.75" customHeight="1">
       <c r="D193" s="21"/>
       <c r="E193" s="21"/>
       <c r="F193" s="21"/>
@@ -15820,7 +15558,7 @@
       <c r="H193" s="21"/>
       <c r="I193" s="21"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="4:9" ht="15.75" customHeight="1">
       <c r="D194" s="21"/>
       <c r="E194" s="21"/>
       <c r="F194" s="21"/>
@@ -15828,7 +15566,7 @@
       <c r="H194" s="21"/>
       <c r="I194" s="21"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="4:9" ht="15.75" customHeight="1">
       <c r="D195" s="21"/>
       <c r="E195" s="21"/>
       <c r="F195" s="21"/>
@@ -15836,7 +15574,7 @@
       <c r="H195" s="21"/>
       <c r="I195" s="21"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="4:9" ht="15.75" customHeight="1">
       <c r="D196" s="21"/>
       <c r="E196" s="21"/>
       <c r="F196" s="21"/>
@@ -15844,7 +15582,7 @@
       <c r="H196" s="21"/>
       <c r="I196" s="21"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="4:9" ht="15.75" customHeight="1">
       <c r="D197" s="21"/>
       <c r="E197" s="21"/>
       <c r="F197" s="21"/>
@@ -15852,7 +15590,7 @@
       <c r="H197" s="21"/>
       <c r="I197" s="21"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="4:9" ht="15.75" customHeight="1">
       <c r="D198" s="21"/>
       <c r="E198" s="21"/>
       <c r="F198" s="21"/>
@@ -15860,7 +15598,7 @@
       <c r="H198" s="21"/>
       <c r="I198" s="21"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="4:9" ht="15.75" customHeight="1">
       <c r="D199" s="21"/>
       <c r="E199" s="21"/>
       <c r="F199" s="21"/>
@@ -15868,7 +15606,7 @@
       <c r="H199" s="21"/>
       <c r="I199" s="21"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="4:9" ht="15.75" customHeight="1">
       <c r="D200" s="21"/>
       <c r="E200" s="21"/>
       <c r="F200" s="21"/>
@@ -15876,7 +15614,7 @@
       <c r="H200" s="21"/>
       <c r="I200" s="21"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="4:9" ht="15.75" customHeight="1">
       <c r="D201" s="21"/>
       <c r="E201" s="21"/>
       <c r="F201" s="21"/>
@@ -15884,7 +15622,7 @@
       <c r="H201" s="21"/>
       <c r="I201" s="21"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="4:9" ht="15.75" customHeight="1">
       <c r="D202" s="21"/>
       <c r="E202" s="21"/>
       <c r="F202" s="21"/>
@@ -15892,7 +15630,7 @@
       <c r="H202" s="21"/>
       <c r="I202" s="21"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="4:9" ht="15.75" customHeight="1">
       <c r="D203" s="21"/>
       <c r="E203" s="21"/>
       <c r="F203" s="21"/>
@@ -15900,7 +15638,7 @@
       <c r="H203" s="21"/>
       <c r="I203" s="21"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="4:9" ht="15.75" customHeight="1">
       <c r="D204" s="21"/>
       <c r="E204" s="21"/>
       <c r="F204" s="21"/>
@@ -15908,7 +15646,7 @@
       <c r="H204" s="21"/>
       <c r="I204" s="21"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="4:9" ht="15.75" customHeight="1">
       <c r="D205" s="21"/>
       <c r="E205" s="21"/>
       <c r="F205" s="21"/>
@@ -15916,7 +15654,7 @@
       <c r="H205" s="21"/>
       <c r="I205" s="21"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="4:9" ht="15.75" customHeight="1">
       <c r="D206" s="21"/>
       <c r="E206" s="21"/>
       <c r="F206" s="21"/>
@@ -15924,7 +15662,7 @@
       <c r="H206" s="21"/>
       <c r="I206" s="21"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="4:9" ht="15.75" customHeight="1">
       <c r="D207" s="21"/>
       <c r="E207" s="21"/>
       <c r="F207" s="21"/>
@@ -15932,7 +15670,7 @@
       <c r="H207" s="21"/>
       <c r="I207" s="21"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="4:9" ht="15.75" customHeight="1">
       <c r="D208" s="21"/>
       <c r="E208" s="21"/>
       <c r="F208" s="21"/>
@@ -15940,7 +15678,7 @@
       <c r="H208" s="21"/>
       <c r="I208" s="21"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="4:9" ht="15.75" customHeight="1">
       <c r="D209" s="21"/>
       <c r="E209" s="21"/>
       <c r="F209" s="21"/>
@@ -15948,7 +15686,7 @@
       <c r="H209" s="21"/>
       <c r="I209" s="21"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="4:9" ht="15.75" customHeight="1">
       <c r="D210" s="21"/>
       <c r="E210" s="21"/>
       <c r="F210" s="21"/>
@@ -15956,7 +15694,7 @@
       <c r="H210" s="21"/>
       <c r="I210" s="21"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="4:9" ht="15.75" customHeight="1">
       <c r="D211" s="21"/>
       <c r="E211" s="21"/>
       <c r="F211" s="21"/>
@@ -15964,7 +15702,7 @@
       <c r="H211" s="21"/>
       <c r="I211" s="21"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="4:9" ht="15.75" customHeight="1">
       <c r="D212" s="21"/>
       <c r="E212" s="21"/>
       <c r="F212" s="21"/>
@@ -15972,7 +15710,7 @@
       <c r="H212" s="21"/>
       <c r="I212" s="21"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="4:9" ht="15.75" customHeight="1">
       <c r="D213" s="21"/>
       <c r="E213" s="21"/>
       <c r="F213" s="21"/>
@@ -15980,7 +15718,7 @@
       <c r="H213" s="21"/>
       <c r="I213" s="21"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="4:9" ht="15.75" customHeight="1">
       <c r="D214" s="21"/>
       <c r="E214" s="21"/>
       <c r="F214" s="21"/>
@@ -15988,7 +15726,7 @@
       <c r="H214" s="21"/>
       <c r="I214" s="21"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="4:9" ht="15.75" customHeight="1">
       <c r="D215" s="21"/>
       <c r="E215" s="21"/>
       <c r="F215" s="21"/>
@@ -15996,7 +15734,7 @@
       <c r="H215" s="21"/>
       <c r="I215" s="21"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="4:9" ht="15.75" customHeight="1">
       <c r="D216" s="21"/>
       <c r="E216" s="21"/>
       <c r="F216" s="21"/>
@@ -16004,7 +15742,7 @@
       <c r="H216" s="21"/>
       <c r="I216" s="21"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="4:9" ht="15.75" customHeight="1">
       <c r="D217" s="21"/>
       <c r="E217" s="21"/>
       <c r="F217" s="21"/>
@@ -16012,7 +15750,7 @@
       <c r="H217" s="21"/>
       <c r="I217" s="21"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="4:9" ht="15.75" customHeight="1">
       <c r="D218" s="21"/>
       <c r="E218" s="21"/>
       <c r="F218" s="21"/>
@@ -16020,7 +15758,7 @@
       <c r="H218" s="21"/>
       <c r="I218" s="21"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="4:9" ht="15.75" customHeight="1">
       <c r="D219" s="21"/>
       <c r="E219" s="21"/>
       <c r="F219" s="21"/>
@@ -16028,7 +15766,7 @@
       <c r="H219" s="21"/>
       <c r="I219" s="21"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="4:9" ht="15.75" customHeight="1">
       <c r="D220" s="21"/>
       <c r="E220" s="21"/>
       <c r="F220" s="21"/>
@@ -16036,10 +15774,10 @@
       <c r="H220" s="21"/>
       <c r="I220" s="21"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="4:9" ht="15.75" customHeight="1"/>
+    <row r="222" spans="4:9" ht="15.75" customHeight="1"/>
+    <row r="223" spans="4:9" ht="15.75" customHeight="1"/>
+    <row r="224" spans="4:9" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -16817,9 +16555,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="landscape"/>
 </worksheet>
 </file>